--- a/Database/Word Translations.xlsx
+++ b/Database/Word Translations.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SDGP_THE_Tyrants\Database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A27D40-DF5D-444F-BEDC-8D60713009C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Folder 01 Translations" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Folder 02 Translations" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Folder 03 Translations" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Folder 04 Translations" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Folder 05 Translations" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Folder 06 Translations" sheetId="6" r:id="rId9"/>
+    <sheet name="Folder 01 Translations" sheetId="1" r:id="rId1"/>
+    <sheet name="Folder 02 Translations" sheetId="2" r:id="rId2"/>
+    <sheet name="Folder 03 Translations" sheetId="3" r:id="rId3"/>
+    <sheet name="Folder 04 Translations" sheetId="4" r:id="rId4"/>
+    <sheet name="Folder 05 Translations" sheetId="5" r:id="rId5"/>
+    <sheet name="Folder 06 Translations" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="697">
   <si>
     <t>Brahmi Word</t>
   </si>
@@ -62,16 +71,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">agata </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
       </rPr>
       <t>. . . . passim</t>
     </r>
@@ -109,68 +120,77 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>agata</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
       </rPr>
       <t>a</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
       </rPr>
       <t>(ta + a)</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> na</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
       </rPr>
       <t>a</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
       </rPr>
       <t>(na + a)</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> gatasa </t>
     </r>
@@ -193,23 +213,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>-aga</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">a ( ga + a) </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>ra</t>
     </r>
@@ -2196,50 +2219,74 @@
   </si>
   <si>
     <t>ha</t>
+  </si>
+  <si>
+    <t>Agi-deva</t>
+  </si>
+  <si>
+    <t>One whose diety is Agni</t>
+  </si>
+  <si>
+    <t>Agi-buti</t>
+  </si>
+  <si>
+    <t>One who owes his existence to Agni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2247,7 +2294,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2263,93 +2310,62 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2539,27 +2555,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.29"/>
-    <col customWidth="1" min="2" max="2" width="59.0"/>
-    <col customWidth="1" min="3" max="3" width="54.86"/>
-    <col customWidth="1" min="4" max="4" width="37.43"/>
-    <col customWidth="1" min="5" max="5" width="20.57"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2584,7 +2605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2598,7 +2619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2621,7 +2642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2629,7 +2650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2640,7 +2661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2654,7 +2675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -2665,7 +2686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2676,7 +2697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -2687,7 +2708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -2698,7 +2719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -2709,7 +2730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -2720,7 +2741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -2731,70 +2752,90 @@
         <v>44</v>
       </c>
     </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z262"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.43"/>
-    <col customWidth="1" min="2" max="2" width="70.86"/>
-    <col customWidth="1" min="3" max="3" width="42.0"/>
-    <col customWidth="1" min="4" max="4" width="39.29"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2830,7 +2871,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
@@ -2842,7 +2883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -2854,7 +2895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>52</v>
       </c>
@@ -2866,7 +2907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>55</v>
       </c>
@@ -2878,7 +2919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
@@ -2890,7 +2931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
@@ -2902,7 +2943,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -2914,7 +2955,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
@@ -2924,7 +2965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
@@ -2936,7 +2977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -2948,7 +2989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>75</v>
       </c>
@@ -2960,7 +3001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>78</v>
       </c>
@@ -2972,7 +3013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>80</v>
       </c>
@@ -2984,7 +3025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>83</v>
       </c>
@@ -2994,7 +3035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>85</v>
       </c>
@@ -3006,7 +3047,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>88</v>
       </c>
@@ -3018,7 +3059,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>91</v>
       </c>
@@ -3030,7 +3071,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>94</v>
       </c>
@@ -3042,7 +3083,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>97</v>
       </c>
@@ -3054,7 +3095,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>100</v>
       </c>
@@ -3066,7 +3107,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>103</v>
       </c>
@@ -3078,7 +3119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>106</v>
       </c>
@@ -3090,7 +3131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>109</v>
       </c>
@@ -3102,7 +3143,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>111</v>
       </c>
@@ -3114,7 +3155,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>114</v>
       </c>
@@ -3126,7 +3167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>117</v>
       </c>
@@ -3138,7 +3179,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>119</v>
       </c>
@@ -3150,7 +3191,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>122</v>
       </c>
@@ -3162,7 +3203,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>125</v>
       </c>
@@ -3174,7 +3215,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>128</v>
       </c>
@@ -3186,7 +3227,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>131</v>
       </c>
@@ -3198,7 +3239,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>134</v>
       </c>
@@ -3210,7 +3251,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>137</v>
       </c>
@@ -3222,7 +3263,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>140</v>
       </c>
@@ -3234,7 +3275,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>143</v>
       </c>
@@ -3246,7 +3287,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>146</v>
       </c>
@@ -3258,7 +3299,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>149</v>
       </c>
@@ -3270,7 +3311,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>152</v>
       </c>
@@ -3282,7 +3323,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>149</v>
       </c>
@@ -3294,7 +3335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>154</v>
       </c>
@@ -3304,7 +3345,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>156</v>
       </c>
@@ -3316,7 +3357,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>159</v>
       </c>
@@ -3326,7 +3367,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>161</v>
       </c>
@@ -3336,7 +3377,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>163</v>
       </c>
@@ -3348,7 +3389,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>166</v>
       </c>
@@ -3358,7 +3399,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>168</v>
       </c>
@@ -3370,7 +3411,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>171</v>
       </c>
@@ -3382,7 +3423,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>174</v>
       </c>
@@ -3392,7 +3433,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>176</v>
       </c>
@@ -3404,7 +3445,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>179</v>
       </c>
@@ -3416,7 +3457,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>182</v>
       </c>
@@ -3428,7 +3469,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>185</v>
       </c>
@@ -3440,7 +3481,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>188</v>
       </c>
@@ -3452,7 +3493,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>191</v>
       </c>
@@ -3464,7 +3505,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>194</v>
       </c>
@@ -3476,7 +3517,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>197</v>
       </c>
@@ -3488,7 +3529,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>200</v>
       </c>
@@ -3498,7 +3539,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>202</v>
       </c>
@@ -3508,7 +3549,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>204</v>
       </c>
@@ -3518,7 +3559,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>206</v>
       </c>
@@ -3530,7 +3571,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>209</v>
       </c>
@@ -3542,7 +3583,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>212</v>
       </c>
@@ -3552,7 +3593,7 @@
       <c r="C63" s="8"/>
       <c r="D63" s="11"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>214</v>
       </c>
@@ -3564,7 +3605,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>217</v>
       </c>
@@ -3576,7 +3617,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>220</v>
       </c>
@@ -3588,7 +3629,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>223</v>
       </c>
@@ -3600,7 +3641,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>226</v>
       </c>
@@ -3612,7 +3653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>229</v>
       </c>
@@ -3622,7 +3663,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>231</v>
       </c>
@@ -3632,7 +3673,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>233</v>
       </c>
@@ -3644,7 +3685,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>236</v>
       </c>
@@ -3656,7 +3697,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>239</v>
       </c>
@@ -3666,7 +3707,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>241</v>
       </c>
@@ -3676,7 +3717,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>243</v>
       </c>
@@ -3688,7 +3729,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>246</v>
       </c>
@@ -3698,7 +3739,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>248</v>
       </c>
@@ -3708,7 +3749,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>250</v>
       </c>
@@ -3720,7 +3761,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>253</v>
       </c>
@@ -3730,7 +3771,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>255</v>
       </c>
@@ -3740,7 +3781,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>257</v>
       </c>
@@ -3750,7 +3791,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>259</v>
       </c>
@@ -3762,7 +3803,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>262</v>
       </c>
@@ -3774,7 +3815,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>265</v>
       </c>
@@ -3786,7 +3827,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>268</v>
       </c>
@@ -3796,7 +3837,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>270</v>
       </c>
@@ -3806,7 +3847,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>272</v>
       </c>
@@ -3818,7 +3859,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>275</v>
       </c>
@@ -3828,7 +3869,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>277</v>
       </c>
@@ -3840,7 +3881,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>280</v>
       </c>
@@ -3852,7 +3893,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>283</v>
       </c>
@@ -3864,7 +3905,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>286</v>
       </c>
@@ -3874,7 +3915,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>288</v>
       </c>
@@ -3884,7 +3925,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>290</v>
       </c>
@@ -3894,7 +3935,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>292</v>
       </c>
@@ -3904,7 +3945,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>294</v>
       </c>
@@ -3914,7 +3955,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>296</v>
       </c>
@@ -3926,7 +3967,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>299</v>
       </c>
@@ -3938,7 +3979,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>302</v>
       </c>
@@ -3948,7 +3989,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -3958,7 +3999,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>306</v>
       </c>
@@ -3970,7 +4011,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>309</v>
       </c>
@@ -3980,7 +4021,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>311</v>
       </c>
@@ -3990,7 +4031,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>313</v>
       </c>
@@ -4000,7 +4041,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>315</v>
       </c>
@@ -4012,7 +4053,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>318</v>
       </c>
@@ -4024,7 +4065,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>320</v>
       </c>
@@ -4034,7 +4075,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>322</v>
       </c>
@@ -4046,7 +4087,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>325</v>
       </c>
@@ -4056,7 +4097,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>327</v>
       </c>
@@ -4066,7 +4107,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>329</v>
       </c>
@@ -4078,7 +4119,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>332</v>
       </c>
@@ -4088,7 +4129,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>334</v>
       </c>
@@ -4100,7 +4141,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>337</v>
       </c>
@@ -4112,7 +4153,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>340</v>
       </c>
@@ -4122,7 +4163,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>342</v>
       </c>
@@ -4132,7 +4173,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>344</v>
       </c>
@@ -4144,7 +4185,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>347</v>
       </c>
@@ -4156,7 +4197,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>350</v>
       </c>
@@ -4166,7 +4207,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>352</v>
       </c>
@@ -4178,7 +4219,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>355</v>
       </c>
@@ -4190,7 +4231,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>358</v>
       </c>
@@ -4202,7 +4243,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>361</v>
       </c>
@@ -4214,7 +4255,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>364</v>
       </c>
@@ -4226,7 +4267,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>367</v>
       </c>
@@ -4238,7 +4279,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>370</v>
       </c>
@@ -4250,7 +4291,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>373</v>
       </c>
@@ -4262,7 +4303,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>376</v>
       </c>
@@ -4274,7 +4315,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>379</v>
       </c>
@@ -4286,7 +4327,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>381</v>
       </c>
@@ -4298,7 +4339,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>384</v>
       </c>
@@ -4308,7 +4349,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>386</v>
       </c>
@@ -4318,7 +4359,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>388</v>
       </c>
@@ -4328,7 +4369,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>390</v>
       </c>
@@ -4340,7 +4381,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>393</v>
       </c>
@@ -4352,7 +4393,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>396</v>
       </c>
@@ -4364,7 +4405,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>399</v>
       </c>
@@ -4376,7 +4417,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>402</v>
       </c>
@@ -4388,7 +4429,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>405</v>
       </c>
@@ -4400,7 +4441,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>408</v>
       </c>
@@ -4412,7 +4453,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>411</v>
       </c>
@@ -4424,7 +4465,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>414</v>
       </c>
@@ -4436,7 +4477,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>417</v>
       </c>
@@ -4448,7 +4489,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>420</v>
       </c>
@@ -4460,7 +4501,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>423</v>
       </c>
@@ -4470,7 +4511,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>424</v>
       </c>
@@ -4482,7 +4523,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>427</v>
       </c>
@@ -4494,7 +4535,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>430</v>
       </c>
@@ -4506,7 +4547,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>433</v>
       </c>
@@ -4518,7 +4559,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>436</v>
       </c>
@@ -4530,7 +4571,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>439</v>
       </c>
@@ -4542,7 +4583,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>442</v>
       </c>
@@ -4554,7 +4595,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>445</v>
       </c>
@@ -4566,7 +4607,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>448</v>
       </c>
@@ -4578,7 +4619,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>451</v>
       </c>
@@ -4590,7 +4631,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>454</v>
       </c>
@@ -4602,7 +4643,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>457</v>
       </c>
@@ -4614,7 +4655,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>459</v>
       </c>
@@ -4626,7 +4667,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>462</v>
       </c>
@@ -4638,7 +4679,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>465</v>
       </c>
@@ -4648,7 +4689,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>467</v>
       </c>
@@ -4660,7 +4701,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>470</v>
       </c>
@@ -4670,7 +4711,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>470</v>
       </c>
@@ -4682,7 +4723,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>473</v>
       </c>
@@ -4694,7 +4735,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>476</v>
       </c>
@@ -4704,7 +4745,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>478</v>
       </c>
@@ -4716,7 +4757,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>481</v>
       </c>
@@ -4728,7 +4769,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>484</v>
       </c>
@@ -4740,7 +4781,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>487</v>
       </c>
@@ -4750,7 +4791,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>489</v>
       </c>
@@ -4760,7 +4801,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>491</v>
       </c>
@@ -4772,7 +4813,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>491</v>
       </c>
@@ -4784,7 +4825,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>495</v>
       </c>
@@ -4796,7 +4837,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>498</v>
       </c>
@@ -4806,7 +4847,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>498</v>
       </c>
@@ -4818,7 +4859,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>501</v>
       </c>
@@ -4830,7 +4871,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>504</v>
       </c>
@@ -4840,7 +4881,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>506</v>
       </c>
@@ -4852,7 +4893,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>509</v>
       </c>
@@ -4862,7 +4903,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>511</v>
       </c>
@@ -4874,7 +4915,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>514</v>
       </c>
@@ -4886,7 +4927,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>517</v>
       </c>
@@ -4896,7 +4937,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>519</v>
       </c>
@@ -4906,7 +4947,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>521</v>
       </c>
@@ -4918,7 +4959,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>524</v>
       </c>
@@ -4928,7 +4969,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>526</v>
       </c>
@@ -4940,7 +4981,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>529</v>
       </c>
@@ -4952,7 +4993,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>532</v>
       </c>
@@ -4962,7 +5003,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>534</v>
       </c>
@@ -4974,7 +5015,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>537</v>
       </c>
@@ -4986,7 +5027,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>540</v>
       </c>
@@ -4998,7 +5039,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>543</v>
       </c>
@@ -5008,7 +5049,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>545</v>
       </c>
@@ -5018,7 +5059,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>547</v>
       </c>
@@ -5028,7 +5069,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>549</v>
       </c>
@@ -5040,7 +5081,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>552</v>
       </c>
@@ -5052,7 +5093,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>554</v>
       </c>
@@ -5064,7 +5105,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>557</v>
       </c>
@@ -5074,7 +5115,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>559</v>
       </c>
@@ -5084,7 +5125,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>561</v>
       </c>
@@ -5094,7 +5135,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>563</v>
       </c>
@@ -5106,7 +5147,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>566</v>
       </c>
@@ -5116,7 +5157,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>568</v>
       </c>
@@ -5126,7 +5167,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>570</v>
       </c>
@@ -5138,7 +5179,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>573</v>
       </c>
@@ -5150,7 +5191,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>576</v>
       </c>
@@ -5162,7 +5203,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>579</v>
       </c>
@@ -5174,7 +5215,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>582</v>
       </c>
@@ -5186,7 +5227,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>585</v>
       </c>
@@ -5198,7 +5239,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>588</v>
       </c>
@@ -5210,7 +5251,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>591</v>
       </c>
@@ -5220,7 +5261,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>593</v>
       </c>
@@ -5232,7 +5273,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>596</v>
       </c>
@@ -5242,7 +5283,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>598</v>
       </c>
@@ -5252,7 +5293,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>600</v>
       </c>
@@ -5262,7 +5303,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>602</v>
       </c>
@@ -5272,7 +5313,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>604</v>
       </c>
@@ -5282,7 +5323,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>606</v>
       </c>
@@ -5292,7 +5333,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>606</v>
       </c>
@@ -5302,7 +5343,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>608</v>
       </c>
@@ -5314,7 +5355,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>611</v>
       </c>
@@ -5326,7 +5367,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>614</v>
       </c>
@@ -5338,7 +5379,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>617</v>
       </c>
@@ -5348,7 +5389,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>618</v>
       </c>
@@ -5360,7 +5401,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>621</v>
       </c>
@@ -5370,7 +5411,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>623</v>
       </c>
@@ -5382,7 +5423,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>626</v>
       </c>
@@ -5394,7 +5435,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>629</v>
       </c>
@@ -5406,7 +5447,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>632</v>
       </c>
@@ -5416,7 +5457,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>634</v>
       </c>
@@ -5428,7 +5469,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>637</v>
       </c>
@@ -5440,7 +5481,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>640</v>
       </c>
@@ -5452,7 +5493,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>643</v>
       </c>
@@ -5462,7 +5503,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>645</v>
       </c>
@@ -5472,7 +5513,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>647</v>
       </c>
@@ -5482,7 +5523,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>649</v>
       </c>
@@ -5494,7 +5535,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>652</v>
       </c>
@@ -5506,7 +5547,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>655</v>
       </c>
@@ -5518,7 +5559,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>658</v>
       </c>
@@ -5530,7 +5571,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>661</v>
       </c>
@@ -5542,7 +5583,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>663</v>
       </c>
@@ -5554,7 +5595,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>666</v>
       </c>
@@ -5566,7 +5607,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>669</v>
       </c>
@@ -5576,7 +5617,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>671</v>
       </c>
@@ -5586,7 +5627,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>673</v>
       </c>
@@ -5596,7 +5637,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>675</v>
       </c>
@@ -5606,7 +5647,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>677</v>
       </c>
@@ -5616,7 +5657,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>679</v>
       </c>
@@ -5626,7 +5667,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>681</v>
       </c>
@@ -5638,7 +5679,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>684</v>
       </c>
@@ -5650,7 +5691,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>687</v>
       </c>
@@ -5662,7 +5703,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>690</v>
       </c>
@@ -5672,7 +5713,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>692</v>
       </c>
@@ -5682,73 +5723,74 @@
         <v>692</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="15"/>
       <c r="B254" s="15"/>
       <c r="D254" s="15"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="15"/>
       <c r="B255" s="15"/>
       <c r="D255" s="15"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="15"/>
       <c r="B256" s="15"/>
       <c r="D256" s="15"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="15"/>
       <c r="B257" s="15"/>
       <c r="D257" s="15"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="D258" s="15"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="15"/>
       <c r="B259" s="15"/>
       <c r="D259" s="15"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="15"/>
       <c r="B260" s="15"/>
       <c r="D260" s="15"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="15"/>
       <c r="B261" s="15"/>
       <c r="D261" s="15"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="16"/>
       <c r="B262" s="15"/>
       <c r="D262" s="15"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.43"/>
-    <col customWidth="1" min="2" max="2" width="42.29"/>
-    <col customWidth="1" min="3" max="3" width="44.14"/>
-    <col customWidth="1" min="4" max="4" width="39.71"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5763,6 +5805,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database/Word Translations.xlsx
+++ b/Database/Word Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SDGP_THE_Tyrants\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A27D40-DF5D-444F-BEDC-8D60713009C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F7778-FB66-49BB-888E-C394169B1F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1395" windowWidth="19485" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder 01 Translations" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="707">
   <si>
     <t>Brahmi Word</t>
   </si>
@@ -2231,6 +2231,36 @@
   </si>
   <si>
     <t>One who owes his existence to Agni</t>
+  </si>
+  <si>
+    <t>Agiya</t>
+  </si>
+  <si>
+    <t>aghata</t>
+  </si>
+  <si>
+    <t>aca</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>Aca-girika</t>
+  </si>
+  <si>
+    <t>bear-hill</t>
+  </si>
+  <si>
+    <t>Aca-nagaraka</t>
+  </si>
+  <si>
+    <t>Bear -Town</t>
+  </si>
+  <si>
+    <t>acariya</t>
+  </si>
+  <si>
+    <t>teacher</t>
   </si>
 </sst>
 </file>
@@ -2565,10 +2595,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2594,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2619,7 +2649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2630,7 +2660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2642,7 +2672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2650,7 +2680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2661,7 +2691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2675,7 +2705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -2686,7 +2716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2697,7 +2727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -2708,7 +2738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -2719,7 +2749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -2730,7 +2760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -2766,6 +2796,48 @@
       </c>
       <c r="B17" s="2" t="s">
         <v>696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2943,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
@@ -2883,7 +2955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -2895,7 +2967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>52</v>
       </c>
@@ -2907,7 +2979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>55</v>
       </c>
@@ -2919,7 +2991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
@@ -2931,7 +3003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
@@ -2943,7 +3015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -2955,7 +3027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
@@ -2965,7 +3037,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
@@ -2977,7 +3049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -2989,7 +3061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>75</v>
       </c>
@@ -3001,7 +3073,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>78</v>
       </c>
@@ -3013,7 +3085,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>80</v>
       </c>

--- a/Database/Word Translations.xlsx
+++ b/Database/Word Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SDGP_THE_Tyrants\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F7778-FB66-49BB-888E-C394169B1F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F24109-9A77-4D40-8116-FCB7B6473138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1395" windowWidth="19485" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder 01 Translations" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="749">
   <si>
     <t>Brahmi Word</t>
   </si>
@@ -2261,6 +2261,132 @@
   </si>
   <si>
     <t>teacher</t>
+  </si>
+  <si>
+    <t>aciriya</t>
+  </si>
+  <si>
+    <t>ajariya</t>
+  </si>
+  <si>
+    <t>ajiriya</t>
+  </si>
+  <si>
+    <t>ata</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>benefit,purpose,aim</t>
+  </si>
+  <si>
+    <t>Ataka</t>
+  </si>
+  <si>
+    <t>ata-kulaha</t>
+  </si>
+  <si>
+    <t>eight families</t>
+  </si>
+  <si>
+    <t>ata-das'a</t>
+  </si>
+  <si>
+    <t>eighteen</t>
+  </si>
+  <si>
+    <t>atha</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>ada-kariha</t>
+  </si>
+  <si>
+    <t>the first member in the…</t>
+  </si>
+  <si>
+    <t>half a kariha</t>
+  </si>
+  <si>
+    <t>Ada-cada</t>
+  </si>
+  <si>
+    <t>Half moon</t>
+  </si>
+  <si>
+    <t>adi</t>
+  </si>
+  <si>
+    <t>one who look after canals,an irrigation officer</t>
+  </si>
+  <si>
+    <t>adici</t>
+  </si>
+  <si>
+    <t>superintendent</t>
+  </si>
+  <si>
+    <t>A+(ga+i)+(da+e)+va</t>
+  </si>
+  <si>
+    <t>A+(ga+i)+(ba+u)+(ta+i)</t>
+  </si>
+  <si>
+    <t>A+(ga+i)+ya</t>
+  </si>
+  <si>
+    <t>a+gha+ta</t>
+  </si>
+  <si>
+    <t>a+ca</t>
+  </si>
+  <si>
+    <t>A+ca+(ga+i)+(ra+i)+ka</t>
+  </si>
+  <si>
+    <t>A+ca+na+ga+ra+ka</t>
+  </si>
+  <si>
+    <t>a+(da+i)+(ca+i)</t>
+  </si>
+  <si>
+    <t>a+(da+i)</t>
+  </si>
+  <si>
+    <t>A+da+ca+da</t>
+  </si>
+  <si>
+    <t>a+da</t>
+  </si>
+  <si>
+    <t>a+tha</t>
+  </si>
+  <si>
+    <t>a+ta+da+s'a</t>
+  </si>
+  <si>
+    <t>a+ta+(ka+u)+la+ha</t>
+  </si>
+  <si>
+    <t>A+ta+ka</t>
+  </si>
+  <si>
+    <t>a+ta</t>
+  </si>
+  <si>
+    <t>a+(ja+i)+(ra+i)+ya</t>
+  </si>
+  <si>
+    <t>a+ja+(ra+i)+ya</t>
+  </si>
+  <si>
+    <t>a+(ca+i)+(ra+i)+ya</t>
+  </si>
+  <si>
+    <t>a+ca+(ra+i)+ya</t>
   </si>
 </sst>
 </file>
@@ -2595,10 +2721,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2789,55 +2915,218 @@
       <c r="B16" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>695</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>699</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>701</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>703</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>705</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>706</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B27" t="s">
+        <v>711</v>
+      </c>
+      <c r="D27" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B28" t="s">
+        <v>712</v>
+      </c>
+      <c r="D28" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D29" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B30" t="s">
+        <v>715</v>
+      </c>
+      <c r="D30" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B31" t="s">
+        <v>717</v>
+      </c>
+      <c r="D31" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D32" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B33" t="s">
+        <v>721</v>
+      </c>
+      <c r="D33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B34" t="s">
+        <v>722</v>
+      </c>
+      <c r="D34" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B35" t="s">
+        <v>724</v>
+      </c>
+      <c r="D35" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B36" t="s">
+        <v>726</v>
+      </c>
+      <c r="D36" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B37" t="s">
+        <v>728</v>
+      </c>
+      <c r="D37" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Word Translations.xlsx
+++ b/Database/Word Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SDGP_THE_Tyrants\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F24109-9A77-4D40-8116-FCB7B6473138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB8F463-6F07-478B-9339-87B2BC5D5646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="877">
   <si>
     <t>Brahmi Word</t>
   </si>
@@ -2387,6 +2387,390 @@
   </si>
   <si>
     <t>a+ca+(ra+i)+ya</t>
+  </si>
+  <si>
+    <t>adiya</t>
+  </si>
+  <si>
+    <t>ananika</t>
+  </si>
+  <si>
+    <t>an irrigation expert</t>
+  </si>
+  <si>
+    <t>anikata</t>
+  </si>
+  <si>
+    <t>a body guard</t>
+  </si>
+  <si>
+    <t>ati</t>
+  </si>
+  <si>
+    <t>elephnat</t>
+  </si>
+  <si>
+    <t>ati-acariya</t>
+  </si>
+  <si>
+    <t>leader of a company of a elephnat trainers</t>
+  </si>
+  <si>
+    <t>ati-ajariya</t>
+  </si>
+  <si>
+    <t>trainer of elephants</t>
+  </si>
+  <si>
+    <t>ati-adika</t>
+  </si>
+  <si>
+    <t>superintendent of elephnats</t>
+  </si>
+  <si>
+    <t>Ati-matakaha</t>
+  </si>
+  <si>
+    <t>one whose mother is of the Atri or Atreya-gotra</t>
+  </si>
+  <si>
+    <t>atireka</t>
+  </si>
+  <si>
+    <t>remainder,residue</t>
+  </si>
+  <si>
+    <t>ativas'ika</t>
+  </si>
+  <si>
+    <t>pupil,disciple</t>
+  </si>
+  <si>
+    <t>atevas'ika</t>
+  </si>
+  <si>
+    <t>atevahika</t>
+  </si>
+  <si>
+    <t>adaka</t>
+  </si>
+  <si>
+    <t>Ada-kacaka</t>
+  </si>
+  <si>
+    <t>place name prefixed to a personal name</t>
+  </si>
+  <si>
+    <t>adakaha</t>
+  </si>
+  <si>
+    <t>adika</t>
+  </si>
+  <si>
+    <t>Adiliya</t>
+  </si>
+  <si>
+    <t>adeka</t>
+  </si>
+  <si>
+    <t>anagata</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>Anada</t>
+  </si>
+  <si>
+    <t>anu jete</t>
+  </si>
+  <si>
+    <t>Anudi</t>
+  </si>
+  <si>
+    <t>Anudi-gamasi</t>
+  </si>
+  <si>
+    <t>anubuti</t>
+  </si>
+  <si>
+    <t>Anurada</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>growing,increasing</t>
+  </si>
+  <si>
+    <t>deputy of the alderman</t>
+  </si>
+  <si>
+    <t>a+(da+i)+ya</t>
+  </si>
+  <si>
+    <t>A+(na+u)+ra+da</t>
+  </si>
+  <si>
+    <t>a+(na+u)+(ba+u)+(ta+i)</t>
+  </si>
+  <si>
+    <t>A+(na+u)+(da+i)+ga+ma+(sa+i)</t>
+  </si>
+  <si>
+    <t>A+(na+u)+(da+i)</t>
+  </si>
+  <si>
+    <t>a+na+(na+i)+ka</t>
+  </si>
+  <si>
+    <t>a+(na+i)+ka+ta</t>
+  </si>
+  <si>
+    <t>a+(ta+i)</t>
+  </si>
+  <si>
+    <t>a+(na+u)+(ja+e)+(ta+e)</t>
+  </si>
+  <si>
+    <t>A+na+da</t>
+  </si>
+  <si>
+    <t>a+na+ga+ta</t>
+  </si>
+  <si>
+    <t>a+(da+e)+ka</t>
+  </si>
+  <si>
+    <t>A+(da+i)+(la+i)+ya</t>
+  </si>
+  <si>
+    <t>a+(da+i)+ka</t>
+  </si>
+  <si>
+    <t>a+da+ka+ha</t>
+  </si>
+  <si>
+    <t>A+da+ka+ca+ka</t>
+  </si>
+  <si>
+    <t>a+(ta+i)+a+ca+(ra+i)+ya</t>
+  </si>
+  <si>
+    <t>a+(ta+i)+a+ja+(ra+i)+ya</t>
+  </si>
+  <si>
+    <t>a+(ta+i)+a+(da+i)+ka</t>
+  </si>
+  <si>
+    <t>A+(ta+i)+ma+ta+ka+ha</t>
+  </si>
+  <si>
+    <t>a+(ta+i)+(ra+e)+ka</t>
+  </si>
+  <si>
+    <t>a+(ta+i)+va+(s'a+i)+ka</t>
+  </si>
+  <si>
+    <t>a+(ta+e)+va+(s'a+i)+ka</t>
+  </si>
+  <si>
+    <t>a+(ta+e)+va+(ha+i)+ka</t>
+  </si>
+  <si>
+    <t>a+da+ka</t>
+  </si>
+  <si>
+    <t>Anuradi</t>
+  </si>
+  <si>
+    <t>feminine of Anurada</t>
+  </si>
+  <si>
+    <t>Anuridi</t>
+  </si>
+  <si>
+    <t>Anula</t>
+  </si>
+  <si>
+    <t>name of a person</t>
+  </si>
+  <si>
+    <t>Anulapi</t>
+  </si>
+  <si>
+    <t>Anotata</t>
+  </si>
+  <si>
+    <t>name of a lake in the Himalayas</t>
+  </si>
+  <si>
+    <t>Anodi</t>
+  </si>
+  <si>
+    <t>faultless</t>
+  </si>
+  <si>
+    <t>Apaya</t>
+  </si>
+  <si>
+    <t>fearless</t>
+  </si>
+  <si>
+    <t>apara</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>aparimita</t>
+  </si>
+  <si>
+    <t>boundless</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>as a second member of ..</t>
+  </si>
+  <si>
+    <t>Aba</t>
+  </si>
+  <si>
+    <t>aba</t>
+  </si>
+  <si>
+    <t>Aba-adi</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>mango tree channel</t>
+  </si>
+  <si>
+    <t>abaka</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>Aba-tota</t>
+  </si>
+  <si>
+    <t>ferry named after a mango tree</t>
+  </si>
+  <si>
+    <t>Aba-nagara'na</t>
+  </si>
+  <si>
+    <t>residents or citizens or mebers of Aba-nagara</t>
+  </si>
+  <si>
+    <t>Aba-nagariyana</t>
+  </si>
+  <si>
+    <t>Abaya</t>
+  </si>
+  <si>
+    <t>Fearless</t>
+  </si>
+  <si>
+    <t>abala</t>
+  </si>
+  <si>
+    <t>sourness</t>
+  </si>
+  <si>
+    <t>Aba-velaka</t>
+  </si>
+  <si>
+    <t>Mango-tree-field</t>
+  </si>
+  <si>
+    <t>abi</t>
+  </si>
+  <si>
+    <t>an honoric title attached to names of princesses</t>
+  </si>
+  <si>
+    <t>Abijhatiya</t>
+  </si>
+  <si>
+    <t>high-born</t>
+  </si>
+  <si>
+    <t>A+(na+u)+ra+(da+i)</t>
+  </si>
+  <si>
+    <t>A+(ba+i)+jha+(ta+i)+ya</t>
+  </si>
+  <si>
+    <t>a+(ba+i)</t>
+  </si>
+  <si>
+    <t>A+ba+(va+e)+la+ka</t>
+  </si>
+  <si>
+    <t>a+ba+la</t>
+  </si>
+  <si>
+    <t>A+ba+ya</t>
+  </si>
+  <si>
+    <t>A+ba+na+ga+(ra+i)+ya+na</t>
+  </si>
+  <si>
+    <t>A+ba+na+ga+ra'+na</t>
+  </si>
+  <si>
+    <t>A+ba+(ta+o)+ta</t>
+  </si>
+  <si>
+    <t>a+ba+ka</t>
+  </si>
+  <si>
+    <t>A+ba+a+(da+i)</t>
+  </si>
+  <si>
+    <t>a+ba</t>
+  </si>
+  <si>
+    <t>A+ba</t>
+  </si>
+  <si>
+    <t>A+(na+u)+(ra+i)+(da+i)</t>
+  </si>
+  <si>
+    <t>A+(na+u)+la</t>
+  </si>
+  <si>
+    <t>A+(na+u)+la+(pa+i)</t>
+  </si>
+  <si>
+    <t>Anulaya</t>
+  </si>
+  <si>
+    <t>A+(na+u)+la+ya</t>
+  </si>
+  <si>
+    <t>A+(na+o)+ta+ta</t>
+  </si>
+  <si>
+    <t>A+(na+o)+(da+i)</t>
+  </si>
+  <si>
+    <t>A+pa+ya</t>
+  </si>
+  <si>
+    <t>a+pa+ra</t>
+  </si>
+  <si>
+    <t>a+pa+(ra+i)+(ma+i)+ta</t>
+  </si>
+  <si>
+    <t>a+(pa+i)</t>
   </si>
 </sst>
 </file>
@@ -2721,17 +3105,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
   </cols>
@@ -3127,6 +3511,498 @@
       </c>
       <c r="D37" t="s">
         <v>736</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D38" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B39" t="s">
+        <v>751</v>
+      </c>
+      <c r="D39" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B40" t="s">
+        <v>753</v>
+      </c>
+      <c r="D40" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B41" t="s">
+        <v>755</v>
+      </c>
+      <c r="D41" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B42" t="s">
+        <v>757</v>
+      </c>
+      <c r="D42" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B43" t="s">
+        <v>759</v>
+      </c>
+      <c r="D43" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B44" t="s">
+        <v>761</v>
+      </c>
+      <c r="D44" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B45" t="s">
+        <v>763</v>
+      </c>
+      <c r="D45" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B46" t="s">
+        <v>765</v>
+      </c>
+      <c r="D46" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B47" t="s">
+        <v>767</v>
+      </c>
+      <c r="D47" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D48" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D49" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B50" t="s">
+        <v>728</v>
+      </c>
+      <c r="D50" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B51" t="s">
+        <v>772</v>
+      </c>
+      <c r="D51" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D52" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D53" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D54" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D55" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B56" t="s">
+        <v>778</v>
+      </c>
+      <c r="D56" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D57" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B58" t="s">
+        <v>787</v>
+      </c>
+      <c r="D58" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B59" t="s">
+        <v>786</v>
+      </c>
+      <c r="D59" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D60" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B61" t="s">
+        <v>785</v>
+      </c>
+      <c r="D61" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B62" t="s">
+        <v>571</v>
+      </c>
+      <c r="D62" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B63" t="s">
+        <v>814</v>
+      </c>
+      <c r="D63" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D64" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B65" t="s">
+        <v>817</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B66" t="s">
+        <v>437</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B68" t="s">
+        <v>820</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B69" t="s">
+        <v>822</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B70" t="s">
+        <v>824</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B71" t="s">
+        <v>826</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B72" t="s">
+        <v>828</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B73" t="s">
+        <v>830</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B74" t="s">
+        <v>824</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B75" t="s">
+        <v>834</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B76" t="s">
+        <v>835</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B77" t="s">
+        <v>837</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B78" t="s">
+        <v>839</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B79" t="s">
+        <v>841</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B81" t="s">
+        <v>844</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B82" t="s">
+        <v>846</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B83" t="s">
+        <v>848</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B84" t="s">
+        <v>850</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B85" t="s">
+        <v>852</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>854</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Word Translations.xlsx
+++ b/Database/Word Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SDGP_THE_Tyrants\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB8F463-6F07-478B-9339-87B2BC5D5646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03AC7BC-A231-41A7-9136-563B6B54F5A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="765" windowWidth="8055" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder 01 Translations" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <sheet name="Folder 05 Translations" sheetId="5" r:id="rId5"/>
     <sheet name="Folder 06 Translations" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="897">
   <si>
     <t>Brahmi Word</t>
   </si>
@@ -2771,6 +2781,66 @@
   </si>
   <si>
     <t>a+(pa+i)</t>
+  </si>
+  <si>
+    <t>S'onaya</t>
+  </si>
+  <si>
+    <t>S'onas'a</t>
+  </si>
+  <si>
+    <t>S'onaha</t>
+  </si>
+  <si>
+    <t>S'oniyagare</t>
+  </si>
+  <si>
+    <t>cave,empty house</t>
+  </si>
+  <si>
+    <t>S'onutara</t>
+  </si>
+  <si>
+    <t>combinataion of Sonu and Uttara</t>
+  </si>
+  <si>
+    <t>S'obanas'a</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>S'obika</t>
+  </si>
+  <si>
+    <t>ornamental one</t>
+  </si>
+  <si>
+    <t>S'oma</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>S'oma-dataha</t>
+  </si>
+  <si>
+    <t>given by Soma</t>
+  </si>
+  <si>
+    <t>S'oma-deva</t>
+  </si>
+  <si>
+    <t>one whose diety is Soma</t>
+  </si>
+  <si>
+    <t>S'omaliya</t>
+  </si>
+  <si>
+    <t>sagasa</t>
+  </si>
+  <si>
+    <t>Saga</t>
   </si>
 </sst>
 </file>
@@ -3105,10 +3175,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4003,6 +4073,92 @@
       </c>
       <c r="D85" s="2" t="s">
         <v>854</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B89" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B90" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B91" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B92" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B93" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B94" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>892</v>
+      </c>
+      <c r="B95" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Word Translations.xlsx
+++ b/Database/Word Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SDGP_THE_Tyrants\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03AC7BC-A231-41A7-9136-563B6B54F5A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6621EE4-0459-47EA-AA55-8CDCA703DD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="765" windowWidth="8055" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder 01 Translations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1188">
   <si>
     <t>Brahmi Word</t>
   </si>
@@ -2842,12 +2842,885 @@
   <si>
     <t>Saga</t>
   </si>
+  <si>
+    <t>Kana</t>
+  </si>
+  <si>
+    <t>rudder of a ship</t>
+  </si>
+  <si>
+    <t>Ka na-gama</t>
+  </si>
+  <si>
+    <t>Kana-guta</t>
+  </si>
+  <si>
+    <t>Kana-tisa</t>
+  </si>
+  <si>
+    <t>Kana-data</t>
+  </si>
+  <si>
+    <t>Kana-dasika</t>
+  </si>
+  <si>
+    <t>the slave</t>
+  </si>
+  <si>
+    <t>kana-pedika</t>
+  </si>
+  <si>
+    <t>the one who is in charge of the chest</t>
+  </si>
+  <si>
+    <t>Kanaya</t>
+  </si>
+  <si>
+    <t>kana-yata</t>
+  </si>
+  <si>
+    <t>one who controls the rudder of the ship</t>
+  </si>
+  <si>
+    <t>Kanasa</t>
+  </si>
+  <si>
+    <t>Kanika</t>
+  </si>
+  <si>
+    <t>attached as an epithet before a personal name</t>
+  </si>
+  <si>
+    <t>[Ti]sa</t>
+  </si>
+  <si>
+    <t>Kanikanatiya</t>
+  </si>
+  <si>
+    <t>kani-yata</t>
+  </si>
+  <si>
+    <t>Kaniyuta-gama</t>
+  </si>
+  <si>
+    <t>village set apart as maintence for a scribe of a mariner</t>
+  </si>
+  <si>
+    <t>katika</t>
+  </si>
+  <si>
+    <t>Katiya</t>
+  </si>
+  <si>
+    <t>name of a contellation</t>
+  </si>
+  <si>
+    <t>Kadali</t>
+  </si>
+  <si>
+    <t>name of a god</t>
+  </si>
+  <si>
+    <t>Kaditiha</t>
+  </si>
+  <si>
+    <t>Kapali</t>
+  </si>
+  <si>
+    <t>Kapila</t>
+  </si>
+  <si>
+    <t>Kabara</t>
+  </si>
+  <si>
+    <t>Kabojha</t>
+  </si>
+  <si>
+    <t>Kabojhiya</t>
+  </si>
+  <si>
+    <t>kama</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>Kama-cudaha</t>
+  </si>
+  <si>
+    <t>one who has a desired crest</t>
+  </si>
+  <si>
+    <t>kamata</t>
+  </si>
+  <si>
+    <t>engaged in a particular work</t>
+  </si>
+  <si>
+    <t>Kamina</t>
+  </si>
+  <si>
+    <t>kaya</t>
+  </si>
+  <si>
+    <t>kara</t>
+  </si>
+  <si>
+    <t>Karajihini-Tisagama</t>
+  </si>
+  <si>
+    <t>Karajihikagala</t>
+  </si>
+  <si>
+    <t>karapita</t>
+  </si>
+  <si>
+    <t>karahaka</t>
+  </si>
+  <si>
+    <t>unit of land mesurement</t>
+  </si>
+  <si>
+    <t>karita</t>
+  </si>
+  <si>
+    <t>kariha, karihi</t>
+  </si>
+  <si>
+    <t>Kalanika</t>
+  </si>
+  <si>
+    <t>kalahi</t>
+  </si>
+  <si>
+    <t>kavi</t>
+  </si>
+  <si>
+    <t>Kasakasa</t>
+  </si>
+  <si>
+    <t>kasapane</t>
+  </si>
+  <si>
+    <t>Kasaba</t>
+  </si>
+  <si>
+    <t>name of a name and a previous Buddha</t>
+  </si>
+  <si>
+    <t>Kasaba-nagare</t>
+  </si>
+  <si>
+    <t>Kasabasa</t>
+  </si>
+  <si>
+    <t>Kasabaha</t>
+  </si>
+  <si>
+    <t>Kasabiya</t>
+  </si>
+  <si>
+    <t>Kasabe</t>
+  </si>
+  <si>
+    <t>kahapane</t>
+  </si>
+  <si>
+    <t>Karavaha</t>
+  </si>
+  <si>
+    <t>length of first syllable causa</t>
+  </si>
+  <si>
+    <t>karite</t>
+  </si>
+  <si>
+    <t>Kitakaya</t>
+  </si>
+  <si>
+    <t>Kitaha</t>
+  </si>
+  <si>
+    <t>Kujha</t>
+  </si>
+  <si>
+    <t>attached as an epithet before a personal name Abaha</t>
+  </si>
+  <si>
+    <t>Kujhaka</t>
+  </si>
+  <si>
+    <t>prefix as an epithet before a personal name Tisaha</t>
+  </si>
+  <si>
+    <t>kuta</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>Kutahate</t>
+  </si>
+  <si>
+    <t>kuti</t>
+  </si>
+  <si>
+    <t>kutubika</t>
+  </si>
+  <si>
+    <t>Kudaka</t>
+  </si>
+  <si>
+    <t>Kunika</t>
+  </si>
+  <si>
+    <t>kutara-gaya</t>
+  </si>
+  <si>
+    <t>for derivation of the word and function of the officer who held the title</t>
+  </si>
+  <si>
+    <t>Kudala</t>
+  </si>
+  <si>
+    <t>kubakara</t>
+  </si>
+  <si>
+    <t>Kubara</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>kubala</t>
+  </si>
+  <si>
+    <t>Kubira</t>
+  </si>
+  <si>
+    <t>Kubiliya</t>
+  </si>
+  <si>
+    <t>Kumadata</t>
+  </si>
+  <si>
+    <t>Kumara-tiha</t>
+  </si>
+  <si>
+    <t>Kumara-datasa</t>
+  </si>
+  <si>
+    <t>Kumarasa</t>
+  </si>
+  <si>
+    <t>Kumaraha</t>
+  </si>
+  <si>
+    <t>kumi</t>
+  </si>
+  <si>
+    <t>water hole excaveted on a rock</t>
+  </si>
+  <si>
+    <t>kula</t>
+  </si>
+  <si>
+    <t>kuli</t>
+  </si>
+  <si>
+    <t>belonging to the family</t>
+  </si>
+  <si>
+    <t>kulika</t>
+  </si>
+  <si>
+    <t>keta</t>
+  </si>
+  <si>
+    <t>Keraha</t>
+  </si>
+  <si>
+    <t>Kelase</t>
+  </si>
+  <si>
+    <t>name of a peak in the Himalayas</t>
+  </si>
+  <si>
+    <t>Kojihara</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>kotagarika</t>
+  </si>
+  <si>
+    <t>superintendent of a store-house</t>
+  </si>
+  <si>
+    <t>kotaya</t>
+  </si>
+  <si>
+    <t>commander of a garrison in a fort</t>
+  </si>
+  <si>
+    <t>komi</t>
+  </si>
+  <si>
+    <t>Kolagamn</t>
+  </si>
+  <si>
+    <t>Kosika</t>
+  </si>
+  <si>
+    <t>a desendent of Kusika</t>
+  </si>
+  <si>
+    <t>Kosiki-mataha</t>
+  </si>
+  <si>
+    <t>Kosike</t>
+  </si>
+  <si>
+    <t>kharapite</t>
+  </si>
+  <si>
+    <t>Gajadabutaka</t>
+  </si>
+  <si>
+    <t>gana</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>ganaka</t>
+  </si>
+  <si>
+    <t>an accountant</t>
+  </si>
+  <si>
+    <t>gana-cadaka</t>
+  </si>
+  <si>
+    <t>director of a corporation</t>
+  </si>
+  <si>
+    <t>gata</t>
+  </si>
+  <si>
+    <t>Gadamadane</t>
+  </si>
+  <si>
+    <t>the name of a mountain</t>
+  </si>
+  <si>
+    <t>Gadiya</t>
+  </si>
+  <si>
+    <t>gapatana</t>
+  </si>
+  <si>
+    <t>lady of the house</t>
+  </si>
+  <si>
+    <t>gapati</t>
+  </si>
+  <si>
+    <t>gapatula</t>
+  </si>
+  <si>
+    <t>reading uncertain</t>
+  </si>
+  <si>
+    <t>gapiti</t>
+  </si>
+  <si>
+    <t>gama</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>gamaka</t>
+  </si>
+  <si>
+    <t>Gamani</t>
+  </si>
+  <si>
+    <t>dynastic title of early Sinhalease kings</t>
+  </si>
+  <si>
+    <t>gamani</t>
+  </si>
+  <si>
+    <t>Leader of a company of elephant-trainers</t>
+  </si>
+  <si>
+    <t>gamasi</t>
+  </si>
+  <si>
+    <t>gamahi</t>
+  </si>
+  <si>
+    <t>gamika</t>
+  </si>
+  <si>
+    <t>village-councillor</t>
+  </si>
+  <si>
+    <t>gamiya</t>
+  </si>
+  <si>
+    <t>Garadidagama</t>
+  </si>
+  <si>
+    <t>gala</t>
+  </si>
+  <si>
+    <t>gahapati</t>
+  </si>
+  <si>
+    <t>head of a household</t>
+  </si>
+  <si>
+    <t>gahapatinaka</t>
+  </si>
+  <si>
+    <t>gahe</t>
+  </si>
+  <si>
+    <t>giri</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>Giritisagama</t>
+  </si>
+  <si>
+    <t>Girivaje</t>
+  </si>
+  <si>
+    <t>Gilika</t>
+  </si>
+  <si>
+    <t>Gutaka</t>
+  </si>
+  <si>
+    <t>Gudaha</t>
+  </si>
+  <si>
+    <t>conceled</t>
+  </si>
+  <si>
+    <t>Guta</t>
+  </si>
+  <si>
+    <t>Protected</t>
+  </si>
+  <si>
+    <t>Gutaya</t>
+  </si>
+  <si>
+    <t>Gutasa</t>
+  </si>
+  <si>
+    <t>Gutaha</t>
+  </si>
+  <si>
+    <t>gutiya</t>
+  </si>
+  <si>
+    <t>Gutena</t>
+  </si>
+  <si>
+    <t>Guraya</t>
+  </si>
+  <si>
+    <t>White or the fair one</t>
+  </si>
+  <si>
+    <t>Guraha</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>guse</t>
+  </si>
+  <si>
+    <t>guha</t>
+  </si>
+  <si>
+    <t>Gokana-gamaka-vavi</t>
+  </si>
+  <si>
+    <t>gota</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>goda</t>
+  </si>
+  <si>
+    <t>same form in modern Sinhalease last name</t>
+  </si>
+  <si>
+    <t>Godaha</t>
+  </si>
+  <si>
+    <t>Gotama</t>
+  </si>
+  <si>
+    <t>Gotimataha</t>
+  </si>
+  <si>
+    <t>Godata</t>
+  </si>
+  <si>
+    <t>gopaka</t>
+  </si>
+  <si>
+    <t>an office</t>
+  </si>
+  <si>
+    <t>Gopaha</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>Gopalaha</t>
+  </si>
+  <si>
+    <t>Gobutiya</t>
+  </si>
+  <si>
+    <t>govaka</t>
+  </si>
+  <si>
+    <t>gurdian</t>
+  </si>
+  <si>
+    <t>goha</t>
+  </si>
+  <si>
+    <t>ghamika</t>
+  </si>
+  <si>
+    <t>same as gamika</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>conjunction</t>
+  </si>
+  <si>
+    <t>cadl</t>
+  </si>
+  <si>
+    <t>excavation on rock for same purpose</t>
+  </si>
+  <si>
+    <t>cata</t>
+  </si>
+  <si>
+    <t>catana</t>
+  </si>
+  <si>
+    <t>Cataha</t>
+  </si>
+  <si>
+    <t>catu</t>
+  </si>
+  <si>
+    <t>cada</t>
+  </si>
+  <si>
+    <t>Cadaka</t>
+  </si>
+  <si>
+    <t>cadaka</t>
+  </si>
+  <si>
+    <t>Cadanaha</t>
+  </si>
+  <si>
+    <t>sandal-wood</t>
+  </si>
+  <si>
+    <t>cadu</t>
+  </si>
+  <si>
+    <t>Cade</t>
+  </si>
+  <si>
+    <t>Canatisapavata</t>
+  </si>
+  <si>
+    <t>Canigamiya</t>
+  </si>
+  <si>
+    <t>Cani-sata</t>
+  </si>
+  <si>
+    <t>an epithet prefixed to a proper name</t>
+  </si>
+  <si>
+    <t>cara</t>
+  </si>
+  <si>
+    <t>journey-man</t>
+  </si>
+  <si>
+    <t>Calala</t>
+  </si>
+  <si>
+    <t>Calaha</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Calu</t>
+  </si>
+  <si>
+    <t>Cahanilaya</t>
+  </si>
+  <si>
+    <t>Cita</t>
+  </si>
+  <si>
+    <t>name of asterism</t>
+  </si>
+  <si>
+    <t>citakara</t>
+  </si>
+  <si>
+    <t>painter</t>
+  </si>
+  <si>
+    <t>Citakasana</t>
+  </si>
+  <si>
+    <t>an epithet before to a personal name</t>
+  </si>
+  <si>
+    <t>Citakaha</t>
+  </si>
+  <si>
+    <t>Cita-deviya</t>
+  </si>
+  <si>
+    <t>Cita-guta</t>
+  </si>
+  <si>
+    <t>protcted by the deity of the Citra-naksatre</t>
+  </si>
+  <si>
+    <t>Cita-nagarahi</t>
+  </si>
+  <si>
+    <t>Cerece</t>
+  </si>
+  <si>
+    <t>epithet before to a personal name</t>
+  </si>
+  <si>
+    <t>Cuda</t>
+  </si>
+  <si>
+    <t>Cuda-Ayimaraha</t>
+  </si>
+  <si>
+    <t>Cuda-Kasabaha</t>
+  </si>
+  <si>
+    <t>Cuda-Kumaraha</t>
+  </si>
+  <si>
+    <t>Cuda-gamikaha</t>
+  </si>
+  <si>
+    <t>Cuda-Tisa</t>
+  </si>
+  <si>
+    <t>Cuda-Dataha</t>
+  </si>
+  <si>
+    <t>Cuda-Nagaha</t>
+  </si>
+  <si>
+    <t>Cuda-Budarakita</t>
+  </si>
+  <si>
+    <t>Cuda-Rakasa</t>
+  </si>
+  <si>
+    <t>Cuda-Sidaha</t>
+  </si>
+  <si>
+    <t>Cuda-Sudasane</t>
+  </si>
+  <si>
+    <t>Cuda-Sumanaha</t>
+  </si>
+  <si>
+    <t>Cuda Sonaha</t>
+  </si>
+  <si>
+    <t>Cuda-Haneyaha</t>
+  </si>
+  <si>
+    <t>Cuda-Honaha</t>
+  </si>
+  <si>
+    <t>Cudi</t>
+  </si>
+  <si>
+    <t>bearing a crest</t>
+  </si>
+  <si>
+    <t>Cudi-Tisaha</t>
+  </si>
+  <si>
+    <t>Cudi-Nagasa</t>
+  </si>
+  <si>
+    <t>Cudika</t>
+  </si>
+  <si>
+    <t>Cudutara</t>
+  </si>
+  <si>
+    <t>Cula</t>
+  </si>
+  <si>
+    <t>Culu</t>
+  </si>
+  <si>
+    <t>Culataha</t>
+  </si>
+  <si>
+    <t>cetiya</t>
+  </si>
+  <si>
+    <t>a fumerary monment</t>
+  </si>
+  <si>
+    <t>Cema</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>Cema-gamasi</t>
+  </si>
+  <si>
+    <t>codi</t>
+  </si>
+  <si>
+    <t>codaka</t>
+  </si>
+  <si>
+    <t>Corikiya</t>
+  </si>
+  <si>
+    <t>an epithet based on place name</t>
+  </si>
+  <si>
+    <t>chatu</t>
+  </si>
+  <si>
+    <t>jana</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>jita</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>jeta</t>
+  </si>
+  <si>
+    <t>eldest son</t>
+  </si>
+  <si>
+    <t>Samaniya</t>
+  </si>
+  <si>
+    <t>sala</t>
+  </si>
+  <si>
+    <t>a species of trees</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>sava</t>
+  </si>
+  <si>
+    <t>Savatobhade</t>
+  </si>
+  <si>
+    <t>auspicious in every direction</t>
+  </si>
+  <si>
+    <t>sahathake</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>abbreviation of a auspicious word sida</t>
+  </si>
+  <si>
+    <t>sita</t>
+  </si>
+  <si>
+    <t>cool cave</t>
+  </si>
+  <si>
+    <t>sida</t>
+  </si>
+  <si>
+    <t>auspicious word at the begining of a document</t>
+  </si>
+  <si>
+    <t>sidam</t>
+  </si>
+  <si>
+    <t>Sidaviya</t>
+  </si>
+  <si>
+    <t>siddham</t>
+  </si>
+  <si>
+    <t>auspicious word</t>
+  </si>
+  <si>
+    <t>sidha</t>
+  </si>
+  <si>
+    <t>sidham</t>
+  </si>
+  <si>
+    <t>Siva</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2898,8 +3771,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2918,8 +3797,14 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2927,11 +3812,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2956,6 +3856,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3175,10 +4081,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3190,21 +4096,43 @@
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3215,7 +4143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3229,7 +4157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3240,7 +4168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3252,7 +4180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3260,7 +4188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3271,7 +4199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3285,7 +4213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -3296,7 +4224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -3307,7 +4235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -3318,7 +4246,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -3329,7 +4257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -3340,7 +4268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -3351,7 +4279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -3362,7 +4290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>693</v>
       </c>
@@ -4171,13 +5099,1545 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z222"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>926</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="B31" s="17"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>940</v>
+      </c>
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="B45" s="17"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="B52" s="17"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="B57" s="17"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="B59" s="17"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="B60" s="17"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="B61" s="17"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="B63" s="17"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="B64" s="17"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="B68" s="17"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="B70" s="17"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>986</v>
+      </c>
+      <c r="B72" s="17"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="B73" s="17"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="B75" s="17"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="B78" s="17"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="B79" s="17"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B84" s="17"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B85" s="17"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B87" s="17"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B88" s="17"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B89" s="17"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B90" s="17"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B94" s="17"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="17" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B96" s="17"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B98" s="17"/>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B100" s="17"/>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B102" s="17"/>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="17" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B105" s="17"/>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B106" s="17"/>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B108" s="17"/>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B109" s="17"/>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B110" s="17"/>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B112" s="17"/>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B113" s="17"/>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B115" s="17"/>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B116" s="17"/>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B118" s="17"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B121" s="17"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B122" s="17"/>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B123" s="17"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B124" s="17"/>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B125" s="17"/>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B128" s="17"/>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B130" s="17"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B133" s="17"/>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B134" s="17"/>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B135" s="17"/>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="17" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B136" s="17"/>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="17" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B139" s="17"/>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B140" s="17"/>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B142" s="17"/>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="17" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B146" s="17"/>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B147" s="17"/>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B148" s="17"/>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="17" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B149" s="17"/>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B150" s="17"/>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B151" s="17"/>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B152" s="17"/>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="17" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B154" s="17"/>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B155" s="17"/>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B156" s="17"/>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B157" s="17"/>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B160" s="17"/>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B161" s="17"/>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B163" s="17"/>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B164" s="17"/>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B168" s="17"/>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B169" s="17"/>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B171" s="17"/>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B173" s="17"/>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B174" s="17"/>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B175" s="17"/>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B176" s="17"/>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B177" s="17"/>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B178" s="17"/>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B179" s="17"/>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B180" s="17"/>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="17" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B181" s="17"/>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B182" s="17"/>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B183" s="17"/>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B184" s="17"/>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B185" s="17"/>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B186" s="17"/>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B187" s="17"/>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B188" s="17"/>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B190" s="17"/>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B191" s="17"/>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B192" s="17"/>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B193" s="17"/>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B194" s="17"/>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B195" s="17"/>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B196" s="17"/>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B199" s="17"/>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B200" s="17"/>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B201" s="17"/>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B203" s="17"/>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B209" s="17"/>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B210" s="17"/>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="17" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B212" s="17"/>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B213" s="17" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="17" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B216" s="17"/>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="17" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B217" s="17"/>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="17" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B219" s="17"/>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="17" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B220" s="17"/>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="17" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B221" s="17"/>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B222" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4218,7 +6678,9 @@
   </sheetPr>
   <dimension ref="A1:Z262"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Database/Word Translations.xlsx
+++ b/Database/Word Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SDGP_THE_Tyrants\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6621EE4-0459-47EA-AA55-8CDCA703DD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D4D644-E15E-4427-B9E2-55F1AA353131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder 01 Translations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1263">
   <si>
     <t>Brahmi Word</t>
   </si>
@@ -3714,6 +3714,231 @@
   </si>
   <si>
     <t>Siva</t>
+  </si>
+  <si>
+    <t>Ka+na</t>
+  </si>
+  <si>
+    <t>Ka+na+ga+ma</t>
+  </si>
+  <si>
+    <t>Ka+na+(ga+u)+ta</t>
+  </si>
+  <si>
+    <t>Ka+na+(ta+i)+sa</t>
+  </si>
+  <si>
+    <t>Ka+na+da+ta</t>
+  </si>
+  <si>
+    <t>Ka+na+da+(sa+i)+ka</t>
+  </si>
+  <si>
+    <t>ka+na+(pa+e)+(da+i)+ka</t>
+  </si>
+  <si>
+    <t>Ka+na+ya</t>
+  </si>
+  <si>
+    <t>ka+na+ya+ta</t>
+  </si>
+  <si>
+    <t>Ka+na+sa</t>
+  </si>
+  <si>
+    <t>Ka+(na+i)+ka</t>
+  </si>
+  <si>
+    <t>[Ta+i]+sa</t>
+  </si>
+  <si>
+    <t>Ka+(na+i)+ka+na+(ta+i)+ya</t>
+  </si>
+  <si>
+    <t>ka+(na+i)+ya+ta</t>
+  </si>
+  <si>
+    <t>Ka+(na+i)+(ya+u)+ta+ga+ma</t>
+  </si>
+  <si>
+    <t>ka+(ta+i)+ka</t>
+  </si>
+  <si>
+    <t>Ka+(ta+i)+ya</t>
+  </si>
+  <si>
+    <t>Ka+da+(la+i)</t>
+  </si>
+  <si>
+    <t>Ka+(da+i)+(ta+i)+ha</t>
+  </si>
+  <si>
+    <t>Ka+pa+(la+i)</t>
+  </si>
+  <si>
+    <t>(Sa+i)+va</t>
+  </si>
+  <si>
+    <t>(sa+i)+dha+(ma+a)</t>
+  </si>
+  <si>
+    <t>(sa+i)+dha</t>
+  </si>
+  <si>
+    <t>(sa+i)+(da+a)+dha+(ma+m)</t>
+  </si>
+  <si>
+    <t>Ka+(pa+i)+la</t>
+  </si>
+  <si>
+    <t>Ka+ba+ra</t>
+  </si>
+  <si>
+    <t>Ka+(ba+o)+jha</t>
+  </si>
+  <si>
+    <t>Ka+(ba+o)+(jha+i)+ya</t>
+  </si>
+  <si>
+    <t>ka+ma</t>
+  </si>
+  <si>
+    <t>Ka+ma+(ca+u)+da+ha</t>
+  </si>
+  <si>
+    <t>ka+ma+ta</t>
+  </si>
+  <si>
+    <t>Ka+(ma+i)+na</t>
+  </si>
+  <si>
+    <t>ka+ya</t>
+  </si>
+  <si>
+    <t>ka+ra</t>
+  </si>
+  <si>
+    <t>Ka+ra+(ja+i)+(ha+i)+(na+i)+(Ta+i)+sa+ga+ma</t>
+  </si>
+  <si>
+    <t>Ka+ra+(ja+i)+(ha+i)+ka+ga+la</t>
+  </si>
+  <si>
+    <t>ka+ra+(pa+i)+ta</t>
+  </si>
+  <si>
+    <t>ka+ra+ha+ka</t>
+  </si>
+  <si>
+    <t>ka+(ra+i)+ta</t>
+  </si>
+  <si>
+    <t>ka+(ra+i)+ha, ka+(ra+i)+(ha+i)</t>
+  </si>
+  <si>
+    <t>Ka+la+(na+i)+ka</t>
+  </si>
+  <si>
+    <t>ka+la+(ha+i)</t>
+  </si>
+  <si>
+    <t>ka+(va+i)</t>
+  </si>
+  <si>
+    <t>Ka+sa+ka+sa</t>
+  </si>
+  <si>
+    <t>ka+sa+pa+(na+e)</t>
+  </si>
+  <si>
+    <t>Ka+sa+ba</t>
+  </si>
+  <si>
+    <t>Ka+sa+ba+na+ga+(ra+e)</t>
+  </si>
+  <si>
+    <t>Ka+sa+ba+sa</t>
+  </si>
+  <si>
+    <t>Ka+sa+ba+ha</t>
+  </si>
+  <si>
+    <t>Ka+sa+(ba+i)+ya</t>
+  </si>
+  <si>
+    <t>Ka+sa+(ba+e)</t>
+  </si>
+  <si>
+    <t>ka+ha+pa+(na+e)</t>
+  </si>
+  <si>
+    <t>Ka+ra+va+ha</t>
+  </si>
+  <si>
+    <t>ka+(ra+i)+(ta+e)</t>
+  </si>
+  <si>
+    <t>(Ka+i)+ta+ka+ya</t>
+  </si>
+  <si>
+    <t>(Ka+i)+ta+ha</t>
+  </si>
+  <si>
+    <t>(Ka+u)+jha</t>
+  </si>
+  <si>
+    <t>(Ka+u)+jha+ka</t>
+  </si>
+  <si>
+    <t>(ka+u)+ta</t>
+  </si>
+  <si>
+    <t>(Ka+u)+ta+ha+(ta+e)</t>
+  </si>
+  <si>
+    <t>(ka+u)+(ta+i)</t>
+  </si>
+  <si>
+    <t>(ka+u)+(ta+u)+(ba+i)+ka</t>
+  </si>
+  <si>
+    <t>(Ka+u)+da+ka</t>
+  </si>
+  <si>
+    <t>(Ka+u)+(na+i)+ka</t>
+  </si>
+  <si>
+    <t>(ka+u)+ta+ra+ga+ya</t>
+  </si>
+  <si>
+    <t>(Ka+u)+da+la</t>
+  </si>
+  <si>
+    <t>(ka+u)+ba+ka+ra</t>
+  </si>
+  <si>
+    <t>(Sa+i)+da+(va+i)+ya</t>
+  </si>
+  <si>
+    <t>(sa+i)+da+(ma+a)</t>
+  </si>
+  <si>
+    <t>(Ka+u)+ma+ra+(ta+i)+ha</t>
+  </si>
+  <si>
+    <t>(Ka+u)+ma+da+ta</t>
+  </si>
+  <si>
+    <t>(Ka+u)+(ba+i)+(la+i)+ya</t>
+  </si>
+  <si>
+    <t>(Ka+u)+(ba+i)+ra</t>
+  </si>
+  <si>
+    <t>(ka+u)+ba+la</t>
+  </si>
+  <si>
+    <t>(Ka+u)+ba+ra</t>
   </si>
 </sst>
 </file>
@@ -4083,8 +4308,8 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5101,14 +5326,15 @@
   </sheetPr>
   <dimension ref="A1:Z222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5154,30 +5380,45 @@
       <c r="B2" s="17" t="s">
         <v>898</v>
       </c>
+      <c r="D2" s="17" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>899</v>
       </c>
       <c r="B3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>1189</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>900</v>
       </c>
       <c r="B4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>1190</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>901</v>
       </c>
       <c r="B5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>1191</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>902</v>
       </c>
       <c r="B6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>1192</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
@@ -5186,6 +5427,9 @@
       <c r="B7" s="17" t="s">
         <v>904</v>
       </c>
+      <c r="D7" s="17" t="s">
+        <v>1193</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -5194,12 +5438,18 @@
       <c r="B8" s="17" t="s">
         <v>906</v>
       </c>
+      <c r="D8" s="17" t="s">
+        <v>1194</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>907</v>
       </c>
       <c r="B9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>1195</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -5208,12 +5458,18 @@
       <c r="B10" s="17" t="s">
         <v>909</v>
       </c>
+      <c r="D10" s="17" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>910</v>
       </c>
       <c r="B11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -5222,24 +5478,36 @@
       <c r="B12" s="17" t="s">
         <v>912</v>
       </c>
+      <c r="D12" s="17" t="s">
+        <v>1198</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>913</v>
       </c>
       <c r="B13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>1199</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>914</v>
       </c>
       <c r="B14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>915</v>
       </c>
       <c r="B15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
@@ -5248,1392 +5516,2013 @@
       <c r="B16" s="17" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="17" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>918</v>
       </c>
       <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="17" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>919</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="17" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>921</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="17" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>923</v>
       </c>
       <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="17" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>924</v>
       </c>
       <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="17" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>925</v>
       </c>
       <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="17" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>926</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="17" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>927</v>
       </c>
       <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="17" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>928</v>
       </c>
       <c r="B25" s="17"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="17" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>929</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="17" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>931</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="17" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>933</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="17" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>935</v>
       </c>
       <c r="B29" s="17"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="17" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>936</v>
       </c>
       <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="17" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>937</v>
       </c>
       <c r="B31" s="17"/>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="17" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>938</v>
       </c>
       <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="17" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>939</v>
       </c>
       <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="17" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>940</v>
       </c>
       <c r="B34" s="17"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="17" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>941</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="17" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>943</v>
       </c>
       <c r="B36" s="17"/>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="17" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>944</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="17" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>945</v>
       </c>
       <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="17" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>946</v>
       </c>
       <c r="B39" s="17"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="17" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>947</v>
       </c>
       <c r="B40" s="17"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="17" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>948</v>
       </c>
       <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="17" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>949</v>
       </c>
       <c r="B42" s="17"/>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="17" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>950</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="17" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>952</v>
       </c>
       <c r="B44" s="17"/>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="17" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>953</v>
       </c>
       <c r="B45" s="17"/>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="17" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>954</v>
       </c>
       <c r="B46" s="17"/>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="17" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>955</v>
       </c>
       <c r="B47" s="17"/>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="17" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>956</v>
       </c>
       <c r="B48" s="17"/>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="17" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>957</v>
       </c>
       <c r="B49" s="17"/>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="17" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>958</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="17" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>960</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="17" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>961</v>
       </c>
       <c r="B52" s="17"/>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="17" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>962</v>
       </c>
       <c r="B53" s="17"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="17" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>963</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="17" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>965</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="17" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>967</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="17" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>969</v>
       </c>
       <c r="B57" s="17"/>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="17" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>970</v>
       </c>
       <c r="B58" s="17"/>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="17" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>971</v>
       </c>
       <c r="B59" s="17"/>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="17" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>972</v>
       </c>
       <c r="B60" s="17"/>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="17" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>973</v>
       </c>
       <c r="B61" s="17"/>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="17" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>974</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="17" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>976</v>
       </c>
       <c r="B63" s="17"/>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="17" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>977</v>
       </c>
       <c r="B64" s="17"/>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="17" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>978</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="17" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>980</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="17" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>981</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="17" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>982</v>
       </c>
       <c r="B68" s="17"/>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="17" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>983</v>
       </c>
       <c r="B69" s="17"/>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="17" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>984</v>
       </c>
       <c r="B70" s="17"/>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="17" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>985</v>
       </c>
       <c r="B71" s="17"/>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="17" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>986</v>
       </c>
       <c r="B72" s="17"/>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="17" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>987</v>
       </c>
       <c r="B73" s="17"/>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="17" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>988</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="17" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>990</v>
       </c>
       <c r="B75" s="17"/>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="17" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>991</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="17" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>993</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="17" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>994</v>
       </c>
       <c r="B78" s="17"/>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="17" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>995</v>
       </c>
       <c r="B79" s="17"/>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="17" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>996</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>998</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="17" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>1000</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="17" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>1002</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="17" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>1004</v>
       </c>
       <c r="B84" s="17"/>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="17" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>1005</v>
       </c>
       <c r="B85" s="17"/>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="17" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>1006</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="17" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>1008</v>
       </c>
       <c r="B87" s="17"/>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="17" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>1009</v>
       </c>
       <c r="B88" s="17"/>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="17" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>1010</v>
       </c>
       <c r="B89" s="17"/>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="17" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>1011</v>
       </c>
       <c r="B90" s="17"/>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="17" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>1012</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="17" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>1014</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="17" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>1016</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="17" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>1018</v>
       </c>
       <c r="B94" s="17"/>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="17" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>1019</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>1021</v>
       </c>
       <c r="B96" s="17"/>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="17" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>1022</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="17" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>1024</v>
       </c>
       <c r="B98" s="17"/>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="17" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>1025</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="17" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>1027</v>
       </c>
       <c r="B100" s="17"/>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="17" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>1028</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="17" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>1030</v>
       </c>
       <c r="B102" s="17"/>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D102" s="17" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>1031</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>1033</v>
       </c>
       <c r="B104" s="17" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="17" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>1035</v>
       </c>
       <c r="B105" s="17"/>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="17" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>1036</v>
       </c>
       <c r="B106" s="17"/>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="17" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>1037</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D107" s="17" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>1039</v>
       </c>
       <c r="B108" s="17"/>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="17" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>1040</v>
       </c>
       <c r="B109" s="17"/>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="17" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>1041</v>
       </c>
       <c r="B110" s="17"/>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="17" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>1042</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D111" s="17" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>1044</v>
       </c>
       <c r="B112" s="17"/>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D112" s="17" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>1045</v>
       </c>
       <c r="B113" s="17"/>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="17" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>1046</v>
       </c>
       <c r="B114" s="17" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="17" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>1048</v>
       </c>
       <c r="B115" s="17"/>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="17" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>1049</v>
       </c>
       <c r="B116" s="17"/>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="17" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>1050</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D117" s="17" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>1051</v>
       </c>
       <c r="B118" s="17"/>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D118" s="17" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>1052</v>
       </c>
       <c r="B119" s="17" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D119" s="17" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>1054</v>
       </c>
       <c r="B120" s="17" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D120" s="17" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>1056</v>
       </c>
       <c r="B121" s="17"/>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="17" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>1057</v>
       </c>
       <c r="B122" s="17"/>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D122" s="18" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>1058</v>
       </c>
       <c r="B123" s="17"/>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="17" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>1059</v>
       </c>
       <c r="B124" s="17"/>
-    </row>
-    <row r="125" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="17" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>1060</v>
       </c>
       <c r="B125" s="17"/>
-    </row>
-    <row r="126" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="17" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>1061</v>
       </c>
       <c r="B126" s="17" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D126" s="17" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>1063</v>
       </c>
       <c r="B127" s="17" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D127" s="17" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>1065</v>
       </c>
       <c r="B128" s="17"/>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D128" s="17" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>1066</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="17" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>1067</v>
       </c>
       <c r="B130" s="17"/>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="17" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>1068</v>
       </c>
       <c r="B131" s="17" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D131" s="17" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>1070</v>
       </c>
       <c r="B132" s="17" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="17" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>1072</v>
       </c>
       <c r="B133" s="17"/>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D133" s="17" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>1073</v>
       </c>
       <c r="B134" s="17"/>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D134" s="17" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>1074</v>
       </c>
       <c r="B135" s="17"/>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D135" s="17" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>1075</v>
       </c>
       <c r="B136" s="17"/>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D136" s="17" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>1076</v>
       </c>
       <c r="B137" s="17" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D137" s="17" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>1078</v>
       </c>
       <c r="B138" s="17" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="17" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>1080</v>
       </c>
       <c r="B139" s="17"/>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D139" s="17" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>1081</v>
       </c>
       <c r="B140" s="17"/>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="17" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>1082</v>
       </c>
       <c r="B141" s="17" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D141" s="17" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>1084</v>
       </c>
       <c r="B142" s="17"/>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D142" s="17" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>1085</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D143" s="17" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>1087</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D144" s="17" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>1089</v>
       </c>
       <c r="B145" s="17" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D145" s="17" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>1091</v>
       </c>
       <c r="B146" s="17"/>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D146" s="17" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>1092</v>
       </c>
       <c r="B147" s="17"/>
-    </row>
-    <row r="148" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D147" s="17" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>1093</v>
       </c>
       <c r="B148" s="17"/>
-    </row>
-    <row r="149" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D148" s="17" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>1094</v>
       </c>
       <c r="B149" s="17"/>
-    </row>
-    <row r="150" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D149" s="17" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>1095</v>
       </c>
       <c r="B150" s="17"/>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D150" s="17" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>1096</v>
       </c>
       <c r="B151" s="17"/>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D151" s="17" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>1097</v>
       </c>
       <c r="B152" s="17"/>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D152" s="17" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>1098</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D153" s="17" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>1100</v>
       </c>
       <c r="B154" s="17"/>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="17" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>1101</v>
       </c>
       <c r="B155" s="17"/>
-    </row>
-    <row r="156" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D155" s="17" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>1102</v>
       </c>
       <c r="B156" s="17"/>
-    </row>
-    <row r="157" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D156" s="17" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>1103</v>
       </c>
       <c r="B157" s="17"/>
-    </row>
-    <row r="158" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="17" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>1104</v>
       </c>
       <c r="B158" s="17" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D158" s="17" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>1106</v>
       </c>
       <c r="B159" s="17" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D159" s="17" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>1108</v>
       </c>
       <c r="B160" s="17"/>
-    </row>
-    <row r="161" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D160" s="17" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>1109</v>
       </c>
       <c r="B161" s="17"/>
-    </row>
-    <row r="162" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D161" s="17" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>1110</v>
       </c>
       <c r="B162" s="17" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D162" s="17" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>1111</v>
       </c>
       <c r="B163" s="17"/>
-    </row>
-    <row r="164" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D163" s="17" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>1112</v>
       </c>
       <c r="B164" s="17"/>
-    </row>
-    <row r="165" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D164" s="17" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>1113</v>
       </c>
       <c r="B165" s="17" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D165" s="17" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="B166" s="17" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D166" s="17" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>1117</v>
       </c>
       <c r="B167" s="17" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D167" s="17" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
         <v>1119</v>
       </c>
       <c r="B168" s="17"/>
-    </row>
-    <row r="169" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D168" s="17" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>1120</v>
       </c>
       <c r="B169" s="17"/>
-    </row>
-    <row r="170" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D169" s="17" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>1121</v>
       </c>
       <c r="B170" s="17" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D170" s="17" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>1123</v>
       </c>
       <c r="B171" s="17"/>
-    </row>
-    <row r="172" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D171" s="17" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>1124</v>
       </c>
       <c r="B172" s="17" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D172" s="17" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>1126</v>
       </c>
       <c r="B173" s="17"/>
-    </row>
-    <row r="174" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D173" s="17" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>1127</v>
       </c>
       <c r="B174" s="17"/>
-    </row>
-    <row r="175" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D174" s="17" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>1128</v>
       </c>
       <c r="B175" s="17"/>
-    </row>
-    <row r="176" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D175" s="17" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
         <v>1129</v>
       </c>
       <c r="B176" s="17"/>
-    </row>
-    <row r="177" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D176" s="17" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="s">
         <v>1130</v>
       </c>
       <c r="B177" s="17"/>
-    </row>
-    <row r="178" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D177" s="17" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="s">
         <v>1131</v>
       </c>
       <c r="B178" s="17"/>
-    </row>
-    <row r="179" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D178" s="17" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
         <v>1132</v>
       </c>
       <c r="B179" s="17"/>
-    </row>
-    <row r="180" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D179" s="17" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
         <v>1133</v>
       </c>
       <c r="B180" s="17"/>
-    </row>
-    <row r="181" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D180" s="17" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>1134</v>
       </c>
       <c r="B181" s="17"/>
-    </row>
-    <row r="182" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D181" s="17" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
         <v>1135</v>
       </c>
       <c r="B182" s="17"/>
-    </row>
-    <row r="183" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="17" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>1136</v>
       </c>
       <c r="B183" s="17"/>
-    </row>
-    <row r="184" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D183" s="17" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
         <v>1137</v>
       </c>
       <c r="B184" s="17"/>
-    </row>
-    <row r="185" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D184" s="17" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
         <v>1138</v>
       </c>
       <c r="B185" s="17"/>
-    </row>
-    <row r="186" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D185" s="17" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
         <v>1139</v>
       </c>
       <c r="B186" s="17"/>
-    </row>
-    <row r="187" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D186" s="17" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
         <v>1140</v>
       </c>
       <c r="B187" s="17"/>
-    </row>
-    <row r="188" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D187" s="17" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
         <v>1141</v>
       </c>
       <c r="B188" s="17"/>
-    </row>
-    <row r="189" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D188" s="17" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>1142</v>
       </c>
       <c r="B189" s="17" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D189" s="17" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>1144</v>
       </c>
       <c r="B190" s="17"/>
-    </row>
-    <row r="191" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D190" s="17" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
         <v>1145</v>
       </c>
       <c r="B191" s="17"/>
-    </row>
-    <row r="192" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D191" s="17" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
         <v>1146</v>
       </c>
       <c r="B192" s="17"/>
-    </row>
-    <row r="193" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D192" s="17" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
         <v>1147</v>
       </c>
       <c r="B193" s="17"/>
-    </row>
-    <row r="194" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D193" s="17" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
         <v>1148</v>
       </c>
       <c r="B194" s="17"/>
-    </row>
-    <row r="195" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D194" s="17" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
         <v>1149</v>
       </c>
       <c r="B195" s="17"/>
-    </row>
-    <row r="196" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D195" s="17" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
         <v>1150</v>
       </c>
       <c r="B196" s="17"/>
-    </row>
-    <row r="197" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D196" s="17" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="s">
         <v>1151</v>
       </c>
       <c r="B197" s="17" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D197" s="17" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
         <v>1153</v>
       </c>
       <c r="B198" s="17" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D198" s="17" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
         <v>1155</v>
       </c>
       <c r="B199" s="17"/>
-    </row>
-    <row r="200" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D199" s="17" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="17" t="s">
         <v>1156</v>
       </c>
       <c r="B200" s="17"/>
-    </row>
-    <row r="201" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D200" s="17" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
         <v>1157</v>
       </c>
       <c r="B201" s="17"/>
-    </row>
-    <row r="202" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="17" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="17" t="s">
         <v>1158</v>
       </c>
       <c r="B202" s="17" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D202" s="17" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
         <v>1160</v>
       </c>
       <c r="B203" s="17"/>
-    </row>
-    <row r="204" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="17" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="17" t="s">
         <v>1161</v>
       </c>
       <c r="B204" s="17" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="17" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
         <v>1163</v>
       </c>
       <c r="B205" s="17" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="17" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="17" t="s">
         <v>1165</v>
       </c>
       <c r="B206" s="17" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="17" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="s">
         <v>1167</v>
       </c>
       <c r="B207" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="17" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="17" t="s">
         <v>1168</v>
       </c>
       <c r="B208" s="17" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D208" s="17" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="s">
         <v>1170</v>
       </c>
       <c r="B209" s="17"/>
-    </row>
-    <row r="210" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="17" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="17" t="s">
         <v>1171</v>
       </c>
       <c r="B210" s="17"/>
-    </row>
-    <row r="211" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="17" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
         <v>1172</v>
       </c>
       <c r="B211" s="17" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D211" s="17" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
         <v>1174</v>
       </c>
       <c r="B212" s="17"/>
-    </row>
-    <row r="213" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="17" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="s">
         <v>1175</v>
       </c>
       <c r="B213" s="17" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D213" s="17" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
         <v>1177</v>
       </c>
       <c r="B214" s="17" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="17" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
         <v>1179</v>
       </c>
       <c r="B215" s="17" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D215" s="17" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="17" t="s">
         <v>1181</v>
       </c>
       <c r="B216" s="17"/>
-    </row>
-    <row r="217" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D216" s="17" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="s">
         <v>1182</v>
       </c>
       <c r="B217" s="17"/>
-    </row>
-    <row r="218" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D217" s="17" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="17" t="s">
         <v>1183</v>
       </c>
       <c r="B218" s="17" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D218" s="17" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
         <v>1185</v>
       </c>
       <c r="B219" s="17"/>
-    </row>
-    <row r="220" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D219" s="17" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
         <v>1186</v>
       </c>
       <c r="B220" s="17"/>
-    </row>
-    <row r="221" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D220" s="17" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="s">
         <v>1187</v>
       </c>
       <c r="B221" s="17"/>
-    </row>
-    <row r="222" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D221" s="17" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="17" t="s">
         <v>643</v>
       </c>
       <c r="B222" s="17"/>
+      <c r="D222" s="17" t="s">
+        <v>644</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Word Translations.xlsx
+++ b/Database/Word Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SDGP_THE_Tyrants\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D4D644-E15E-4427-B9E2-55F1AA353131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41289BD7-7A09-46EE-9A14-81E137C90025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1406">
   <si>
     <t>Brahmi Word</t>
   </si>
@@ -3939,6 +3939,435 @@
   </si>
   <si>
     <t>(Ka+u)+ba+ra</t>
+  </si>
+  <si>
+    <t>(Ka+u)+ma+ra+da+ta+sa</t>
+  </si>
+  <si>
+    <t>(Ka+u)+ma+ra+sa</t>
+  </si>
+  <si>
+    <t>(Ka+u)+ma+ra+ha</t>
+  </si>
+  <si>
+    <t>(ka+u)+(ma+i)</t>
+  </si>
+  <si>
+    <t>(ka+u)+la</t>
+  </si>
+  <si>
+    <t>(ka+u)+(la+i)</t>
+  </si>
+  <si>
+    <t>(ka+u)+(la+i)+ka</t>
+  </si>
+  <si>
+    <t>(ka+e)+ta</t>
+  </si>
+  <si>
+    <t>(Ka+e)+ra+ha</t>
+  </si>
+  <si>
+    <t>(Ka+e)+la+(sa+e)</t>
+  </si>
+  <si>
+    <t>(Ka+o)+(ja+i)+ha+ra</t>
+  </si>
+  <si>
+    <t>(ka+o)+ta+ga+(ra+i)+ka</t>
+  </si>
+  <si>
+    <t>(ka+o)+ta+ya</t>
+  </si>
+  <si>
+    <t>(ka+o)+(ma+i)</t>
+  </si>
+  <si>
+    <t>(Ka+o)+la+ga+(ma+a)+(na+n)</t>
+  </si>
+  <si>
+    <t>(Ka+o)+(sa+i)+ka</t>
+  </si>
+  <si>
+    <t>(Ka+o)+(sa+i)+(ka+i)+ma+ta+ha</t>
+  </si>
+  <si>
+    <t>(ca+o)+(da+i)</t>
+  </si>
+  <si>
+    <t>(ca+o)+da+ka</t>
+  </si>
+  <si>
+    <t>(Ca+o)+(ra+i)+(ka+i)+ya</t>
+  </si>
+  <si>
+    <t>cha+(ta+u)</t>
+  </si>
+  <si>
+    <t>ja+na</t>
+  </si>
+  <si>
+    <t>(ja+i)+ta</t>
+  </si>
+  <si>
+    <t>(ja+e)+ta</t>
+  </si>
+  <si>
+    <t>Sa+ma+(na+i)+ya</t>
+  </si>
+  <si>
+    <t>sa+la</t>
+  </si>
+  <si>
+    <t>Sa+la</t>
+  </si>
+  <si>
+    <t>sa+va</t>
+  </si>
+  <si>
+    <t>Sa+va+(ta+o)+bha+(da+e)</t>
+  </si>
+  <si>
+    <t>sa+ha+tha+(ka+e)</t>
+  </si>
+  <si>
+    <t>(sa+i)</t>
+  </si>
+  <si>
+    <t>(sa+i)+ta</t>
+  </si>
+  <si>
+    <t>(sa+i)+da</t>
+  </si>
+  <si>
+    <t>(Ka+o)+(sa+i)+(ka+e)</t>
+  </si>
+  <si>
+    <t>kha+ra+(pa+i)+(ta+e)</t>
+  </si>
+  <si>
+    <t>Ga+ja+da+(ba+u)+ta+ka</t>
+  </si>
+  <si>
+    <t>ca+(da+a)+(la+a)</t>
+  </si>
+  <si>
+    <t>ca+ta</t>
+  </si>
+  <si>
+    <t>ca+ta+na</t>
+  </si>
+  <si>
+    <t>Ca+ta+ha</t>
+  </si>
+  <si>
+    <t>ca+tu</t>
+  </si>
+  <si>
+    <t>ca+da</t>
+  </si>
+  <si>
+    <t>Ca+da+ka</t>
+  </si>
+  <si>
+    <t>ca+da+ka</t>
+  </si>
+  <si>
+    <t>Ca+da+na+ha</t>
+  </si>
+  <si>
+    <t>ca+(da+u)</t>
+  </si>
+  <si>
+    <t>Ca+(da+e)</t>
+  </si>
+  <si>
+    <t>Ca+na+(ta+i)+sa+pa+va+ta</t>
+  </si>
+  <si>
+    <t>Ca+(na+i)+ga+(ma+i)ya</t>
+  </si>
+  <si>
+    <t>Ca+(na+i)+sa+ta</t>
+  </si>
+  <si>
+    <t>ca+ra</t>
+  </si>
+  <si>
+    <t>Ca+la+la</t>
+  </si>
+  <si>
+    <t>Ca+la+ha</t>
+  </si>
+  <si>
+    <t>Ca+(la+i)</t>
+  </si>
+  <si>
+    <t>Ca+(la+u)</t>
+  </si>
+  <si>
+    <t>Ca+ha+(na+i)+la+ya</t>
+  </si>
+  <si>
+    <t>(Ca+i)+ta</t>
+  </si>
+  <si>
+    <t>(ca+i)+ta+ka+ra</t>
+  </si>
+  <si>
+    <t>(Ca+i)+ta+ka+sa+na</t>
+  </si>
+  <si>
+    <t>(Ca+i)+ta+ka+ha</t>
+  </si>
+  <si>
+    <t>(Ca+i)+ta+(da+e)+(va+i)+ya</t>
+  </si>
+  <si>
+    <t>(Ca+i)+ta+(ga+u)+ta</t>
+  </si>
+  <si>
+    <t>(Ca+i)+ta+na+ga+ra+(ha+i)</t>
+  </si>
+  <si>
+    <t>(Ca+e)+(ra+e)+(ca+e)</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+a+(ya+i)+ma+ra+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+(da+i)</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+(Ha+o)+na+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+(da+i)+(Ta+i)+sa+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+(da+i)+Na+ga+sa</t>
+  </si>
+  <si>
+    <t>(Ca+u)+(da+i)+ka</t>
+  </si>
+  <si>
+    <t>(Ca+u)+(da+u)+ta+ra</t>
+  </si>
+  <si>
+    <t>(Ca+u)+la</t>
+  </si>
+  <si>
+    <t>(Ca+u)+(la+u)</t>
+  </si>
+  <si>
+    <t>(Ca+u)+la+ta+ha</t>
+  </si>
+  <si>
+    <t>(ca+e)+(ta+i)+ya</t>
+  </si>
+  <si>
+    <t>(Ca+e)+ma</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+Ka+sa+ba+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+(Ka+u)+ma+ra+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+ga+(ma+i)+ka+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+(Ta+i)+sa</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+Da+ta+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+Na+ga+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+(Ba+u)+da+ra+(ka+i)+ta</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+Ra+ka+sa</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+(Sa+i)+da+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+(Sa+u)+da+sa+(na+e)</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+(Sa+u)+ma+na+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+(Sa+o)+na+ha</t>
+  </si>
+  <si>
+    <t>(Ca+u)+da+Ha+(na+e)+ya+ha</t>
+  </si>
+  <si>
+    <t>ga+na</t>
+  </si>
+  <si>
+    <t>ga+na+ka</t>
+  </si>
+  <si>
+    <t>ga+na+ca+da+ka</t>
+  </si>
+  <si>
+    <t>ga+ta</t>
+  </si>
+  <si>
+    <t>Ga+da+ma+da+(na+e)</t>
+  </si>
+  <si>
+    <t>Ga+(da+i)+ya</t>
+  </si>
+  <si>
+    <t>ga+pa+ta+na</t>
+  </si>
+  <si>
+    <t>ga+pa+(ta+i)</t>
+  </si>
+  <si>
+    <t>ga+pa+(ta+u)+la</t>
+  </si>
+  <si>
+    <t>ga+(pa+i)+(ta+i)</t>
+  </si>
+  <si>
+    <t>ga+ma</t>
+  </si>
+  <si>
+    <t>ga+ma+ka</t>
+  </si>
+  <si>
+    <t>Ga+ma+(na+i)</t>
+  </si>
+  <si>
+    <t>ga+ma+(na+i)</t>
+  </si>
+  <si>
+    <t>ga+ma+(sa+i)</t>
+  </si>
+  <si>
+    <t>ga+ma+(ha+i)</t>
+  </si>
+  <si>
+    <t>ga+(ma+i)+ka</t>
+  </si>
+  <si>
+    <t>ga+(ma+i)+ya</t>
+  </si>
+  <si>
+    <t>Ga+ra+(da+i)+da+ga+ma</t>
+  </si>
+  <si>
+    <t>ga+la</t>
+  </si>
+  <si>
+    <t>ga+ha+pa+(ta+i)</t>
+  </si>
+  <si>
+    <t>ga+ha+pa+(ta+i)+na+ka</t>
+  </si>
+  <si>
+    <t>ga+(ha+e)</t>
+  </si>
+  <si>
+    <t>(ga+i)+(ra+i)</t>
+  </si>
+  <si>
+    <t>(Ga+i)+(ra+i)+(ta+i)+sa+ga+ma</t>
+  </si>
+  <si>
+    <t>(Ga+i)+(ra+i)+va+(ja+e)</t>
+  </si>
+  <si>
+    <t>(Ga+i)+(la+i)+ka</t>
+  </si>
+  <si>
+    <t>(Ga+u)+ta+ka</t>
+  </si>
+  <si>
+    <t>(Ga+u)+da+ha</t>
+  </si>
+  <si>
+    <t>(Ga+u)+ta</t>
+  </si>
+  <si>
+    <t>(Ga+u)+ta+ya</t>
+  </si>
+  <si>
+    <t>(Ga+u)+ta+sa</t>
+  </si>
+  <si>
+    <t>(Ga+u)+ta+ha</t>
+  </si>
+  <si>
+    <t>gha+(ma+i)+ka</t>
+  </si>
+  <si>
+    <t>(ga+o)+ha</t>
+  </si>
+  <si>
+    <t>(ga+o)+va+ka</t>
+  </si>
+  <si>
+    <t>(Ga+o)+(ba+u)+(ta+i)+ya</t>
+  </si>
+  <si>
+    <t>(Ga+o)+pa+la+ha</t>
+  </si>
+  <si>
+    <t>(Ga+o)+pa+ha</t>
+  </si>
+  <si>
+    <t>(ga+o)+pa+ka</t>
+  </si>
+  <si>
+    <t>(Ga+o)+da+ta</t>
+  </si>
+  <si>
+    <t>(Ga+o)+(ta+i)+ma+ta+ha</t>
+  </si>
+  <si>
+    <t>(Ga+o)+ta+ma</t>
+  </si>
+  <si>
+    <t>(Ga+o)+da+ha</t>
+  </si>
+  <si>
+    <t>(ga+o)+da</t>
+  </si>
+  <si>
+    <t>(ga+o)+ta</t>
+  </si>
+  <si>
+    <t>(ga+u)+(ta+i)+ya</t>
+  </si>
+  <si>
+    <t>(Ga+u)+(ta+e)+na</t>
+  </si>
+  <si>
+    <t>(Ga+u)+ra+ya</t>
+  </si>
+  <si>
+    <t>(Ga+u)+ra+ha</t>
+  </si>
+  <si>
+    <t>(ga+u)+(sa+e)</t>
+  </si>
+  <si>
+    <t>(ga+u)+ha</t>
+  </si>
+  <si>
+    <t>(Ga+o)+ka+na+ga+ma+ka+va+(va+i)</t>
   </si>
 </sst>
 </file>
@@ -5326,8 +5755,8 @@
   </sheetPr>
   <dimension ref="A1:Z222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6048,7 +6477,7 @@
       </c>
       <c r="B71" s="17"/>
       <c r="D71" s="17" t="s">
-        <v>985</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6057,7 +6486,7 @@
       </c>
       <c r="B72" s="17"/>
       <c r="D72" s="17" t="s">
-        <v>986</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6066,7 +6495,7 @@
       </c>
       <c r="B73" s="17"/>
       <c r="D73" s="17" t="s">
-        <v>987</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6077,7 +6506,7 @@
         <v>989</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>988</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6086,7 +6515,7 @@
       </c>
       <c r="B75" s="17"/>
       <c r="D75" s="17" t="s">
-        <v>990</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6097,7 +6526,7 @@
         <v>992</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>991</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6108,7 +6537,7 @@
         <v>992</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>993</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6117,7 +6546,7 @@
       </c>
       <c r="B78" s="17"/>
       <c r="D78" s="17" t="s">
-        <v>994</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6126,7 +6555,7 @@
       </c>
       <c r="B79" s="17"/>
       <c r="D79" s="17" t="s">
-        <v>995</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6137,7 +6566,7 @@
         <v>997</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>996</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6148,7 +6577,7 @@
         <v>999</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>998</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6159,7 +6588,7 @@
         <v>1001</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>1000</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6170,7 +6599,7 @@
         <v>1003</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>1002</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6179,7 +6608,7 @@
       </c>
       <c r="B84" s="17"/>
       <c r="D84" s="17" t="s">
-        <v>1004</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6188,7 +6617,7 @@
       </c>
       <c r="B85" s="17"/>
       <c r="D85" s="17" t="s">
-        <v>1005</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6199,7 +6628,7 @@
         <v>1007</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>1006</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6208,7 +6637,7 @@
       </c>
       <c r="B87" s="17"/>
       <c r="D87" s="17" t="s">
-        <v>1008</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6217,7 +6646,7 @@
       </c>
       <c r="B88" s="17"/>
       <c r="D88" s="17" t="s">
-        <v>1009</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6226,7 +6655,7 @@
       </c>
       <c r="B89" s="17"/>
       <c r="D89" s="17" t="s">
-        <v>1010</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6235,7 +6664,7 @@
       </c>
       <c r="B90" s="17"/>
       <c r="D90" s="17" t="s">
-        <v>1011</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6246,7 +6675,7 @@
         <v>1013</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>1012</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6257,7 +6686,7 @@
         <v>1015</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>1014</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6268,7 +6697,7 @@
         <v>1017</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>1016</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6277,7 +6706,7 @@
       </c>
       <c r="B94" s="17"/>
       <c r="D94" s="17" t="s">
-        <v>1018</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6288,7 +6717,7 @@
         <v>1020</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>1019</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6297,7 +6726,7 @@
       </c>
       <c r="B96" s="17"/>
       <c r="D96" s="17" t="s">
-        <v>1021</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6308,7 +6737,7 @@
         <v>1023</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>1022</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6317,7 +6746,7 @@
       </c>
       <c r="B98" s="17"/>
       <c r="D98" s="17" t="s">
-        <v>1024</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6328,7 +6757,7 @@
         <v>1026</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>1025</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6337,7 +6766,7 @@
       </c>
       <c r="B100" s="17"/>
       <c r="D100" s="17" t="s">
-        <v>1027</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6348,7 +6777,7 @@
         <v>1029</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>1028</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6357,7 +6786,7 @@
       </c>
       <c r="B102" s="17"/>
       <c r="D102" s="17" t="s">
-        <v>1030</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6368,7 +6797,7 @@
         <v>1032</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>1031</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6379,7 +6808,7 @@
         <v>1034</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>1033</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6388,7 +6817,7 @@
       </c>
       <c r="B105" s="17"/>
       <c r="D105" s="17" t="s">
-        <v>1035</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6397,7 +6826,7 @@
       </c>
       <c r="B106" s="17"/>
       <c r="D106" s="17" t="s">
-        <v>1036</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6408,7 +6837,7 @@
         <v>1038</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>1037</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6417,7 +6846,7 @@
       </c>
       <c r="B108" s="17"/>
       <c r="D108" s="17" t="s">
-        <v>1039</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6426,7 +6855,7 @@
       </c>
       <c r="B109" s="17"/>
       <c r="D109" s="17" t="s">
-        <v>1040</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6435,7 +6864,7 @@
       </c>
       <c r="B110" s="17"/>
       <c r="D110" s="17" t="s">
-        <v>1041</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6446,7 +6875,7 @@
         <v>1043</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>1042</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6455,7 +6884,7 @@
       </c>
       <c r="B112" s="17"/>
       <c r="D112" s="17" t="s">
-        <v>1044</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6464,7 +6893,7 @@
       </c>
       <c r="B113" s="17"/>
       <c r="D113" s="17" t="s">
-        <v>1045</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6475,7 +6904,7 @@
         <v>1047</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>1046</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6484,7 +6913,7 @@
       </c>
       <c r="B115" s="17"/>
       <c r="D115" s="17" t="s">
-        <v>1048</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6493,7 +6922,7 @@
       </c>
       <c r="B116" s="17"/>
       <c r="D116" s="17" t="s">
-        <v>1049</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6504,7 +6933,7 @@
         <v>912</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>1050</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6513,7 +6942,7 @@
       </c>
       <c r="B118" s="17"/>
       <c r="D118" s="17" t="s">
-        <v>1051</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6524,7 +6953,7 @@
         <v>1053</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>1052</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6535,7 +6964,7 @@
         <v>1055</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>1054</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6544,7 +6973,7 @@
       </c>
       <c r="B121" s="17"/>
       <c r="D121" s="17" t="s">
-        <v>1056</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6553,7 +6982,7 @@
       </c>
       <c r="B122" s="17"/>
       <c r="D122" s="18" t="s">
-        <v>1057</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6562,7 +6991,7 @@
       </c>
       <c r="B123" s="17"/>
       <c r="D123" s="17" t="s">
-        <v>1058</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6571,7 +7000,7 @@
       </c>
       <c r="B124" s="17"/>
       <c r="D124" s="17" t="s">
-        <v>1059</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6580,7 +7009,7 @@
       </c>
       <c r="B125" s="17"/>
       <c r="D125" s="17" t="s">
-        <v>1060</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6591,7 +7020,7 @@
         <v>1062</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>1061</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6602,7 +7031,7 @@
         <v>1064</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>1063</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6611,7 +7040,7 @@
       </c>
       <c r="B128" s="17"/>
       <c r="D128" s="17" t="s">
-        <v>1065</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6622,7 +7051,7 @@
         <v>594</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>1066</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6631,7 +7060,7 @@
       </c>
       <c r="B130" s="17"/>
       <c r="D130" s="17" t="s">
-        <v>1067</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6642,7 +7071,7 @@
         <v>1069</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>1068</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6653,7 +7082,7 @@
         <v>1071</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>1070</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6662,7 +7091,7 @@
       </c>
       <c r="B133" s="17"/>
       <c r="D133" s="17" t="s">
-        <v>1072</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6671,7 +7100,7 @@
       </c>
       <c r="B134" s="17"/>
       <c r="D134" s="17" t="s">
-        <v>1073</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6680,7 +7109,7 @@
       </c>
       <c r="B135" s="17"/>
       <c r="D135" s="17" t="s">
-        <v>1074</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6689,7 +7118,7 @@
       </c>
       <c r="B136" s="17"/>
       <c r="D136" s="17" t="s">
-        <v>1075</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6700,7 +7129,7 @@
         <v>1077</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>1076</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6711,7 +7140,7 @@
         <v>1079</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>1078</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6720,7 +7149,7 @@
       </c>
       <c r="B139" s="17"/>
       <c r="D139" s="17" t="s">
-        <v>1080</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6729,7 +7158,7 @@
       </c>
       <c r="B140" s="17"/>
       <c r="D140" s="17" t="s">
-        <v>1081</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6740,7 +7169,7 @@
         <v>1083</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>1082</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6749,7 +7178,7 @@
       </c>
       <c r="B142" s="17"/>
       <c r="D142" s="17" t="s">
-        <v>1084</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6760,7 +7189,7 @@
         <v>1086</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>1085</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6782,7 +7211,7 @@
         <v>1090</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>1089</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6791,7 +7220,7 @@
       </c>
       <c r="B146" s="17"/>
       <c r="D146" s="17" t="s">
-        <v>1091</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6800,7 +7229,7 @@
       </c>
       <c r="B147" s="17"/>
       <c r="D147" s="17" t="s">
-        <v>1092</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6809,7 +7238,7 @@
       </c>
       <c r="B148" s="17"/>
       <c r="D148" s="17" t="s">
-        <v>1093</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6818,7 +7247,7 @@
       </c>
       <c r="B149" s="17"/>
       <c r="D149" s="17" t="s">
-        <v>1094</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6827,7 +7256,7 @@
       </c>
       <c r="B150" s="17"/>
       <c r="D150" s="17" t="s">
-        <v>1095</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6836,7 +7265,7 @@
       </c>
       <c r="B151" s="17"/>
       <c r="D151" s="17" t="s">
-        <v>1096</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6845,7 +7274,7 @@
       </c>
       <c r="B152" s="17"/>
       <c r="D152" s="17" t="s">
-        <v>1097</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6856,7 +7285,7 @@
         <v>1099</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>1098</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6865,7 +7294,7 @@
       </c>
       <c r="B154" s="17"/>
       <c r="D154" s="17" t="s">
-        <v>1100</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6874,7 +7303,7 @@
       </c>
       <c r="B155" s="17"/>
       <c r="D155" s="17" t="s">
-        <v>1101</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6883,7 +7312,7 @@
       </c>
       <c r="B156" s="17"/>
       <c r="D156" s="17" t="s">
-        <v>1102</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6892,7 +7321,7 @@
       </c>
       <c r="B157" s="17"/>
       <c r="D157" s="17" t="s">
-        <v>1103</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6903,7 +7332,7 @@
         <v>1105</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>1104</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6914,7 +7343,7 @@
         <v>1107</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>1106</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6923,7 +7352,7 @@
       </c>
       <c r="B160" s="17"/>
       <c r="D160" s="17" t="s">
-        <v>1108</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6932,7 +7361,7 @@
       </c>
       <c r="B161" s="17"/>
       <c r="D161" s="17" t="s">
-        <v>1109</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6943,7 +7372,7 @@
         <v>1105</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>1110</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6952,7 +7381,7 @@
       </c>
       <c r="B163" s="17"/>
       <c r="D163" s="17" t="s">
-        <v>1111</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6961,7 +7390,7 @@
       </c>
       <c r="B164" s="17"/>
       <c r="D164" s="17" t="s">
-        <v>1112</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6972,7 +7401,7 @@
         <v>1114</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>1113</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6983,7 +7412,7 @@
         <v>1116</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>1115</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6994,7 +7423,7 @@
         <v>1118</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>1117</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7003,7 +7432,7 @@
       </c>
       <c r="B168" s="17"/>
       <c r="D168" s="17" t="s">
-        <v>1119</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7012,7 +7441,7 @@
       </c>
       <c r="B169" s="17"/>
       <c r="D169" s="17" t="s">
-        <v>1120</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7023,7 +7452,7 @@
         <v>1122</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>1121</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7032,7 +7461,7 @@
       </c>
       <c r="B171" s="17"/>
       <c r="D171" s="17" t="s">
-        <v>1123</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7043,7 +7472,7 @@
         <v>1125</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>1124</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7052,7 +7481,7 @@
       </c>
       <c r="B173" s="17"/>
       <c r="D173" s="17" t="s">
-        <v>1126</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7061,7 +7490,7 @@
       </c>
       <c r="B174" s="17"/>
       <c r="D174" s="17" t="s">
-        <v>1127</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7070,7 +7499,7 @@
       </c>
       <c r="B175" s="17"/>
       <c r="D175" s="17" t="s">
-        <v>1128</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7079,7 +7508,7 @@
       </c>
       <c r="B176" s="17"/>
       <c r="D176" s="17" t="s">
-        <v>1129</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7088,7 +7517,7 @@
       </c>
       <c r="B177" s="17"/>
       <c r="D177" s="17" t="s">
-        <v>1130</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7097,7 +7526,7 @@
       </c>
       <c r="B178" s="17"/>
       <c r="D178" s="17" t="s">
-        <v>1131</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7106,7 +7535,7 @@
       </c>
       <c r="B179" s="17"/>
       <c r="D179" s="17" t="s">
-        <v>1132</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7115,7 +7544,7 @@
       </c>
       <c r="B180" s="17"/>
       <c r="D180" s="17" t="s">
-        <v>1133</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7124,7 +7553,7 @@
       </c>
       <c r="B181" s="17"/>
       <c r="D181" s="17" t="s">
-        <v>1134</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7133,7 +7562,7 @@
       </c>
       <c r="B182" s="17"/>
       <c r="D182" s="17" t="s">
-        <v>1135</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7142,7 +7571,7 @@
       </c>
       <c r="B183" s="17"/>
       <c r="D183" s="17" t="s">
-        <v>1136</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7151,7 +7580,7 @@
       </c>
       <c r="B184" s="17"/>
       <c r="D184" s="17" t="s">
-        <v>1137</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7160,7 +7589,7 @@
       </c>
       <c r="B185" s="17"/>
       <c r="D185" s="17" t="s">
-        <v>1138</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7169,7 +7598,7 @@
       </c>
       <c r="B186" s="17"/>
       <c r="D186" s="17" t="s">
-        <v>1139</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7178,7 +7607,7 @@
       </c>
       <c r="B187" s="17"/>
       <c r="D187" s="17" t="s">
-        <v>1140</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7187,7 +7616,7 @@
       </c>
       <c r="B188" s="17"/>
       <c r="D188" s="17" t="s">
-        <v>1141</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7198,7 +7627,7 @@
         <v>1143</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>1142</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7207,7 +7636,7 @@
       </c>
       <c r="B190" s="17"/>
       <c r="D190" s="17" t="s">
-        <v>1144</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7216,7 +7645,7 @@
       </c>
       <c r="B191" s="17"/>
       <c r="D191" s="17" t="s">
-        <v>1145</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7225,7 +7654,7 @@
       </c>
       <c r="B192" s="17"/>
       <c r="D192" s="17" t="s">
-        <v>1146</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7234,7 +7663,7 @@
       </c>
       <c r="B193" s="17"/>
       <c r="D193" s="17" t="s">
-        <v>1147</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7243,7 +7672,7 @@
       </c>
       <c r="B194" s="17"/>
       <c r="D194" s="17" t="s">
-        <v>1148</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7252,7 +7681,7 @@
       </c>
       <c r="B195" s="17"/>
       <c r="D195" s="17" t="s">
-        <v>1149</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7261,7 +7690,7 @@
       </c>
       <c r="B196" s="17"/>
       <c r="D196" s="17" t="s">
-        <v>1150</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7272,7 +7701,7 @@
         <v>1152</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>1151</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7283,7 +7712,7 @@
         <v>1154</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>1153</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7301,7 +7730,7 @@
       </c>
       <c r="B200" s="17"/>
       <c r="D200" s="17" t="s">
-        <v>1156</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7310,7 +7739,7 @@
       </c>
       <c r="B201" s="17"/>
       <c r="D201" s="17" t="s">
-        <v>1157</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7321,7 +7750,7 @@
         <v>1159</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>1158</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7330,7 +7759,7 @@
       </c>
       <c r="B203" s="17"/>
       <c r="D203" s="17" t="s">
-        <v>1160</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7341,7 +7770,7 @@
         <v>1162</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>1161</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7352,7 +7781,7 @@
         <v>1164</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>1163</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7363,7 +7792,7 @@
         <v>1166</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>1165</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7374,7 +7803,7 @@
         <v>112</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>1167</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7385,7 +7814,7 @@
         <v>1169</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>1168</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7394,7 +7823,7 @@
       </c>
       <c r="B209" s="17"/>
       <c r="D209" s="17" t="s">
-        <v>1170</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7403,7 +7832,7 @@
       </c>
       <c r="B210" s="17"/>
       <c r="D210" s="17" t="s">
-        <v>1171</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7414,7 +7843,7 @@
         <v>1173</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>1172</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7423,7 +7852,7 @@
       </c>
       <c r="B212" s="17"/>
       <c r="D212" s="17" t="s">
-        <v>1174</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7434,7 +7863,7 @@
         <v>1176</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>1175</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7445,7 +7874,7 @@
         <v>1178</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>1177</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7456,7 +7885,7 @@
         <v>1180</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>1179</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
